--- a/data/derived/public/q6_coding_jh_pk.xlsx
+++ b/data/derived/public/q6_coding_jh_pk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hejunquan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\HEGSRR\OR-Replicability-in-Geography-Survey\data\derived\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A935E35-47FF-2941-8FBC-2AA42F09B2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2DDA35-4ACF-491A-BAC9-171DBB13EF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="32680" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q6_coding_jh" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="619">
   <si>
     <t>ResponseId</t>
   </si>
@@ -1895,6 +1895,42 @@
   </si>
   <si>
     <t>Suggest exclusion. No relevant info</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>jh-response</t>
+  </si>
+  <si>
+    <t>I think including is fine. I read "other areas" as new geographic contexts, especially in context of the other part of answer being "local case study". The indigenous bit may be coming from the national agenda to use open science to be more accessible and inclusive, including of alternative knowlege systems</t>
+  </si>
+  <si>
+    <t>You're taking a more expansive interpretation of this open flag. I was using it for definitions that emphasize the quality of the original study's openness and inclusion of data/code as needed</t>
+  </si>
+  <si>
+    <t>nah, not explicit enough</t>
+  </si>
+  <si>
+    <t>Slippery slope-- if similar study implies similar methods, does it also imply similar context, data?</t>
+  </si>
+  <si>
+    <t>OK, also data-new? I think we were concerned that sample could just be a different subset of the same data</t>
+  </si>
+  <si>
+    <t>Yes, it's confusing. And what do do with "reproduce results" -- do they mean similar results?  Does similar research design imply different data?</t>
+  </si>
+  <si>
+    <t>open-repeatable yes, but not sure they're saying enough for formal reproduction. Nothing about results</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>I don't think there's a strong enough case that new data is implied.</t>
+  </si>
+  <si>
+    <t>agreed, that's why they only have internal validation code. In most cases this code is used for internal robustness/sensitivity checks</t>
   </si>
 </sst>
 </file>
@@ -2738,23 +2774,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W284"/>
+  <dimension ref="A1:X284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="110.1640625" style="1" customWidth="1"/>
-    <col min="4" max="20" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="110.140625" style="1" customWidth="1"/>
+    <col min="4" max="20" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>570</v>
       </c>
@@ -2824,8 +2860,11 @@
       <c r="W1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2839,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>SUM(G2:J2)-SUM(L2:N2)</f>
+        <f t="shared" ref="F2:F65" si="0">SUM(G2:J2)-SUM(L2:N2)</f>
         <v>3</v>
       </c>
       <c r="G2">
@@ -2852,6 +2891,9 @@
         <v>1</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="S2">
         <v>1</v>
       </c>
       <c r="V2">
@@ -2860,8 +2902,11 @@
       <c r="W2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>73</v>
       </c>
@@ -2875,10 +2920,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUM(G3:J3)-SUM(L3:N3)</f>
-        <v>2</v>
-      </c>
-      <c r="I3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J3">
@@ -2890,8 +2932,11 @@
       <c r="W3" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>94</v>
       </c>
@@ -2905,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUM(G4:J4)-SUM(L4:N4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H4">
@@ -2920,8 +2965,11 @@
       <c r="W4" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>95</v>
       </c>
@@ -2935,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUM(G5:J5)-SUM(L5:N5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H5">
@@ -2948,6 +2996,9 @@
         <v>1</v>
       </c>
       <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>1</v>
       </c>
       <c r="V5">
@@ -2956,8 +3007,11 @@
       <c r="W5" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>113</v>
       </c>
@@ -2971,13 +3025,16 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUM(G6:J6)-SUM(L6:N6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>1</v>
       </c>
       <c r="V6">
@@ -2986,8 +3043,11 @@
       <c r="W6" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>193</v>
       </c>
@@ -3001,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f>SUM(G7:J7)-SUM(L7:N7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H7">
@@ -3019,8 +3079,11 @@
       <c r="W7" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>221</v>
       </c>
@@ -3034,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUM(G8:J8)-SUM(L8:N8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H8">
@@ -3049,8 +3112,11 @@
       <c r="W8" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>225</v>
       </c>
@@ -3064,13 +3130,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUM(G9:J9)-SUM(L9:N9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="S9">
         <v>1</v>
       </c>
       <c r="V9">
@@ -3079,8 +3148,11 @@
       <c r="W9" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>257</v>
       </c>
@@ -3094,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUM(G10:J10)-SUM(L10:N10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I10">
@@ -3109,8 +3181,11 @@
       <c r="W10" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X10" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60</v>
       </c>
@@ -3124,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUM(G11:J11)-SUM(L11:N11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J11">
@@ -3134,6 +3209,9 @@
         <v>1</v>
       </c>
       <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="S11">
         <v>1</v>
       </c>
       <c r="V11">
@@ -3142,8 +3220,11 @@
       <c r="W11" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>79</v>
       </c>
@@ -3157,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUM(G12:J12)-SUM(L12:N12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J12">
@@ -3172,8 +3253,11 @@
       <c r="W12" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X12" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>155</v>
       </c>
@@ -3187,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <f>SUM(G13:J13)-SUM(L13:N13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H13">
@@ -3197,6 +3281,9 @@
         <v>1</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="O13">
         <v>1</v>
       </c>
       <c r="V13">
@@ -3205,8 +3292,11 @@
       <c r="W13" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X13" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>33</v>
       </c>
@@ -3220,8 +3310,11 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f>SUM(G14:J14)-SUM(L14:N14)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -3232,8 +3325,11 @@
       <c r="W14" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>47</v>
       </c>
@@ -3247,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <f>SUM(G15:J15)-SUM(L15:N15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H15">
@@ -3262,8 +3358,11 @@
       <c r="W15" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>51</v>
       </c>
@@ -3277,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f>SUM(G16:J16)-SUM(L16:N16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16">
@@ -3287,6 +3386,9 @@
         <v>1</v>
       </c>
       <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="T16">
         <v>1</v>
       </c>
       <c r="V16">
@@ -3295,8 +3397,11 @@
       <c r="W16" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X16" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>52</v>
       </c>
@@ -3310,13 +3415,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f>SUM(G17:J17)-SUM(L17:N17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="T17">
         <v>1</v>
       </c>
       <c r="V17">
@@ -3325,8 +3433,11 @@
       <c r="W17" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X17" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>61</v>
       </c>
@@ -3340,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <f>SUM(G18:J18)-SUM(L18:N18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18">
@@ -3353,6 +3464,9 @@
         <v>1</v>
       </c>
       <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="S18">
         <v>1</v>
       </c>
       <c r="V18">
@@ -3361,8 +3475,11 @@
       <c r="W18" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X18" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>76</v>
       </c>
@@ -3376,8 +3493,11 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f>SUM(G19:J19)-SUM(L19:N19)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -3388,8 +3508,11 @@
       <c r="W19" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X19" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>96</v>
       </c>
@@ -3400,10 +3523,10 @@
         <v>191</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <f>SUM(G20:J20)-SUM(L20:N20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O20">
@@ -3415,8 +3538,11 @@
       <c r="W20" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>144</v>
       </c>
@@ -3430,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f>SUM(G21:J21)-SUM(L21:N21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R21">
@@ -3442,8 +3568,11 @@
       <c r="W21" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X21" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>151</v>
       </c>
@@ -3457,10 +3586,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f>SUM(G22:J22)-SUM(L22:N22)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>1</v>
       </c>
       <c r="N22">
@@ -3472,8 +3604,11 @@
       <c r="W22" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X22" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>182</v>
       </c>
@@ -3487,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <f>SUM(G23:J23)-SUM(L23:N23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H23">
@@ -3505,8 +3640,11 @@
       <c r="W23" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X23" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>185</v>
       </c>
@@ -3520,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <f>SUM(G24:J24)-SUM(L24:N24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24">
@@ -3530,6 +3668,9 @@
         <v>1</v>
       </c>
       <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="T24">
         <v>1</v>
       </c>
       <c r="V24">
@@ -3538,8 +3679,11 @@
       <c r="W24" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X24" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>194</v>
       </c>
@@ -3553,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f>SUM(G25:J25)-SUM(L25:N25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25">
@@ -3568,8 +3712,11 @@
       <c r="W25" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X25" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>208</v>
       </c>
@@ -3583,10 +3730,13 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f>SUM(G26:J26)-SUM(L26:N26)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26">
         <v>1</v>
       </c>
       <c r="N26">
@@ -3598,8 +3748,11 @@
       <c r="W26" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X26" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>237</v>
       </c>
@@ -3613,8 +3766,11 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f>SUM(G27:J27)-SUM(L27:N27)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -3625,8 +3781,11 @@
       <c r="W27" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X27" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>250</v>
       </c>
@@ -3640,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <f>SUM(G28:J28)-SUM(L28:N28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O28">
@@ -3652,8 +3811,11 @@
       <c r="W28" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X28" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>227</v>
       </c>
@@ -3667,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <f>SUM(G29:J29)-SUM(L29:N29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V29">
@@ -3676,8 +3838,11 @@
       <c r="W29" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X29" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3691,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <f>SUM(G30:J30)-SUM(L30:N30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30">
@@ -3704,6 +3869,9 @@
         <v>1</v>
       </c>
       <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="T30">
         <v>1</v>
       </c>
       <c r="V30">
@@ -3712,8 +3880,11 @@
       <c r="W30" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X30" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>273</v>
       </c>
@@ -3724,10 +3895,10 @@
         <v>536</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <f>SUM(G31:J31)-SUM(L31:N31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31">
@@ -3745,8 +3916,11 @@
       <c r="W31" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X31" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>129</v>
       </c>
@@ -3763,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <f>SUM(G32:J32)-SUM(L32:N32)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H32">
@@ -3776,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>276</v>
       </c>
@@ -3793,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <f>SUM(G33:J33)-SUM(L33:N33)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H33">
@@ -3812,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>280</v>
       </c>
@@ -3829,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <f>SUM(G34:J34)-SUM(L34:N34)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H34">
@@ -3845,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
@@ -3862,7 +4036,7 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <f>SUM(G35:J35)-SUM(L35:N35)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I35">
@@ -3878,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18</v>
       </c>
@@ -3895,7 +4069,7 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <f>SUM(G36:J36)-SUM(L36:N36)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G36">
@@ -3908,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20</v>
       </c>
@@ -3925,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <f>SUM(G37:J37)-SUM(L37:N37)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H37">
@@ -3938,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>21</v>
       </c>
@@ -3955,7 +4129,7 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <f>SUM(G38:J38)-SUM(L38:N38)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I38">
@@ -3971,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -3988,7 +4162,7 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <f>SUM(G39:J39)-SUM(L39:N39)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I39">
@@ -4001,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32</v>
       </c>
@@ -4018,7 +4192,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <f>SUM(G40:J40)-SUM(L40:N40)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H40">
@@ -4037,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>36</v>
       </c>
@@ -4054,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="F41">
-        <f>SUM(G41:J41)-SUM(L41:N41)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I41">
@@ -4070,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>58</v>
       </c>
@@ -4087,7 +4261,7 @@
         <v>2</v>
       </c>
       <c r="F42">
-        <f>SUM(G42:J42)-SUM(L42:N42)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H42">
@@ -4106,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>62</v>
       </c>
@@ -4123,7 +4297,7 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <f>SUM(G43:J43)-SUM(L43:N43)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G43">
@@ -4139,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>83</v>
       </c>
@@ -4156,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <f>SUM(G44:J44)-SUM(L44:N44)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I44">
@@ -4169,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>91</v>
       </c>
@@ -4186,7 +4360,7 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <f>SUM(G45:J45)-SUM(L45:N45)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G45">
@@ -4208,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>99</v>
       </c>
@@ -4225,7 +4399,7 @@
         <v>2</v>
       </c>
       <c r="F46">
-        <f>SUM(G46:J46)-SUM(L46:N46)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H46">
@@ -4247,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>101</v>
       </c>
@@ -4264,7 +4438,7 @@
         <v>2</v>
       </c>
       <c r="F47">
-        <f>SUM(G47:J47)-SUM(L47:N47)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G47">
@@ -4298,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>115</v>
       </c>
@@ -4315,7 +4489,7 @@
         <v>2</v>
       </c>
       <c r="F48">
-        <f>SUM(G48:J48)-SUM(L48:N48)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H48">
@@ -4340,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>121</v>
       </c>
@@ -4357,7 +4531,7 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <f>SUM(G49:J49)-SUM(L49:N49)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H49">
@@ -4373,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>136</v>
       </c>
@@ -4390,7 +4564,7 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <f>SUM(G50:J50)-SUM(L50:N50)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H50">
@@ -4406,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>145</v>
       </c>
@@ -4423,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="F51">
-        <f>SUM(G51:J51)-SUM(L51:N51)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H51">
@@ -4439,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>159</v>
       </c>
@@ -4456,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="F52">
-        <f>SUM(G52:J52)-SUM(L52:N52)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H52">
@@ -4469,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>160</v>
       </c>
@@ -4486,7 +4660,7 @@
         <v>2</v>
       </c>
       <c r="F53">
-        <f>SUM(G53:J53)-SUM(L53:N53)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I53">
@@ -4499,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>165</v>
       </c>
@@ -4516,7 +4690,7 @@
         <v>2</v>
       </c>
       <c r="F54">
-        <f>SUM(G54:J54)-SUM(L54:N54)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H54">
@@ -4532,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>170</v>
       </c>
@@ -4549,7 +4723,7 @@
         <v>2</v>
       </c>
       <c r="F55">
-        <f>SUM(G55:J55)-SUM(L55:N55)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H55">
@@ -4562,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>178</v>
       </c>
@@ -4579,7 +4753,7 @@
         <v>2</v>
       </c>
       <c r="F56">
-        <f>SUM(G56:J56)-SUM(L56:N56)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H56">
@@ -4595,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>190</v>
       </c>
@@ -4612,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="F57">
-        <f>SUM(G57:J57)-SUM(L57:N57)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H57">
@@ -4628,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>211</v>
       </c>
@@ -4645,7 +4819,7 @@
         <v>2</v>
       </c>
       <c r="F58">
-        <f>SUM(G58:J58)-SUM(L58:N58)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H58">
@@ -4658,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>228</v>
       </c>
@@ -4675,7 +4849,7 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <f>SUM(G59:J59)-SUM(L59:N59)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G59">
@@ -4694,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>254</v>
       </c>
@@ -4711,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="F60">
-        <f>SUM(G60:J60)-SUM(L60:N60)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G60">
@@ -4730,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>255</v>
       </c>
@@ -4747,7 +4921,7 @@
         <v>2</v>
       </c>
       <c r="F61">
-        <f>SUM(G61:J61)-SUM(L61:N61)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H61">
@@ -4766,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>263</v>
       </c>
@@ -4783,7 +4957,7 @@
         <v>2</v>
       </c>
       <c r="F62">
-        <f>SUM(G62:J62)-SUM(L62:N62)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H62">
@@ -4796,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>267</v>
       </c>
@@ -4813,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="F63">
-        <f>SUM(G63:J63)-SUM(L63:N63)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H63">
@@ -4826,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>268</v>
       </c>
@@ -4843,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="F64">
-        <f>SUM(G64:J64)-SUM(L64:N64)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H64">
@@ -4856,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>270</v>
       </c>
@@ -4873,7 +5047,7 @@
         <v>2</v>
       </c>
       <c r="F65">
-        <f>SUM(G65:J65)-SUM(L65:N65)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H65">
@@ -4886,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>275</v>
       </c>
@@ -4903,7 +5077,7 @@
         <v>2</v>
       </c>
       <c r="F66">
-        <f>SUM(G66:J66)-SUM(L66:N66)</f>
+        <f t="shared" ref="F66:F129" si="1">SUM(G66:J66)-SUM(L66:N66)</f>
         <v>2</v>
       </c>
       <c r="H66">
@@ -4916,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>279</v>
       </c>
@@ -4933,7 +5107,7 @@
         <v>2</v>
       </c>
       <c r="F67">
-        <f>SUM(G67:J67)-SUM(L67:N67)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H67">
@@ -4946,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>283</v>
       </c>
@@ -4963,7 +5137,7 @@
         <v>2</v>
       </c>
       <c r="F68">
-        <f>SUM(G68:J68)-SUM(L68:N68)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I68">
@@ -4979,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12</v>
       </c>
@@ -4996,7 +5170,7 @@
         <v>2</v>
       </c>
       <c r="F69">
-        <f>SUM(G69:J69)-SUM(L69:N69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G69">
@@ -5012,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
@@ -5029,7 +5203,7 @@
         <v>2</v>
       </c>
       <c r="F70">
-        <f>SUM(G70:J70)-SUM(L70:N70)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I70">
@@ -5045,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16</v>
       </c>
@@ -5062,7 +5236,7 @@
         <v>2</v>
       </c>
       <c r="F71">
-        <f>SUM(G71:J71)-SUM(L71:N71)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G71">
@@ -5087,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>17</v>
       </c>
@@ -5104,7 +5278,7 @@
         <v>2</v>
       </c>
       <c r="F72">
-        <f>SUM(G72:J72)-SUM(L72:N72)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H72">
@@ -5123,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>19</v>
       </c>
@@ -5140,7 +5314,7 @@
         <v>2</v>
       </c>
       <c r="F73">
-        <f>SUM(G73:J73)-SUM(L73:N73)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J73">
@@ -5150,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>23</v>
       </c>
@@ -5167,7 +5341,7 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <f>SUM(G74:J74)-SUM(L74:N74)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G74">
@@ -5183,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>34</v>
       </c>
@@ -5200,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <f>SUM(G75:J75)-SUM(L75:N75)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H75">
@@ -5213,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>39</v>
       </c>
@@ -5230,7 +5404,7 @@
         <v>2</v>
       </c>
       <c r="F76">
-        <f>SUM(G76:J76)-SUM(L76:N76)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H76">
@@ -5255,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>44</v>
       </c>
@@ -5272,7 +5446,7 @@
         <v>2</v>
       </c>
       <c r="F77">
-        <f>SUM(G77:J77)-SUM(L77:N77)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H77">
@@ -5285,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>46</v>
       </c>
@@ -5302,7 +5476,7 @@
         <v>2</v>
       </c>
       <c r="F78">
-        <f>SUM(G78:J78)-SUM(L78:N78)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I78">
@@ -5312,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>66</v>
       </c>
@@ -5329,7 +5503,7 @@
         <v>2</v>
       </c>
       <c r="F79">
-        <f>SUM(G79:J79)-SUM(L79:N79)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J79">
@@ -5342,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>72</v>
       </c>
@@ -5359,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="F80">
-        <f>SUM(G80:J80)-SUM(L80:N80)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G80">
@@ -5381,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>77</v>
       </c>
@@ -5398,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="F81">
-        <f>SUM(G81:J81)-SUM(L81:N81)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G81">
@@ -5417,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>84</v>
       </c>
@@ -5434,7 +5608,7 @@
         <v>2</v>
       </c>
       <c r="F82">
-        <f>SUM(G82:J82)-SUM(L82:N82)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J82">
@@ -5447,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>85</v>
       </c>
@@ -5464,7 +5638,7 @@
         <v>2</v>
       </c>
       <c r="F83">
-        <f>SUM(G83:J83)-SUM(L83:N83)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I83">
@@ -5480,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>87</v>
       </c>
@@ -5497,7 +5671,7 @@
         <v>2</v>
       </c>
       <c r="F84">
-        <f>SUM(G84:J84)-SUM(L84:N84)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J84">
@@ -5510,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>92</v>
       </c>
@@ -5527,7 +5701,7 @@
         <v>2</v>
       </c>
       <c r="F85">
-        <f>SUM(G85:J85)-SUM(L85:N85)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J85">
@@ -5540,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>98</v>
       </c>
@@ -5557,7 +5731,7 @@
         <v>2</v>
       </c>
       <c r="F86">
-        <f>SUM(G86:J86)-SUM(L86:N86)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H86">
@@ -5579,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>106</v>
       </c>
@@ -5596,7 +5770,7 @@
         <v>2</v>
       </c>
       <c r="F87">
-        <f>SUM(G87:J87)-SUM(L87:N87)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H87">
@@ -5612,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>111</v>
       </c>
@@ -5629,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="F88">
-        <f>SUM(G88:J88)-SUM(L88:N88)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H88">
@@ -5645,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>119</v>
       </c>
@@ -5662,7 +5836,7 @@
         <v>2</v>
       </c>
       <c r="F89">
-        <f>SUM(G89:J89)-SUM(L89:N89)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H89">
@@ -5681,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>125</v>
       </c>
@@ -5698,7 +5872,7 @@
         <v>2</v>
       </c>
       <c r="F90">
-        <f>SUM(G90:J90)-SUM(L90:N90)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J90">
@@ -5711,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>127</v>
       </c>
@@ -5728,7 +5902,7 @@
         <v>2</v>
       </c>
       <c r="F91">
-        <f>SUM(G91:J91)-SUM(L91:N91)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J91">
@@ -5744,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>137</v>
       </c>
@@ -5761,7 +5935,7 @@
         <v>2</v>
       </c>
       <c r="F92">
-        <f>SUM(G92:J92)-SUM(L92:N92)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J92">
@@ -5774,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>138</v>
       </c>
@@ -5791,7 +5965,7 @@
         <v>2</v>
       </c>
       <c r="F93">
-        <f>SUM(G93:J93)-SUM(L93:N93)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G93">
@@ -5813,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>139</v>
       </c>
@@ -5830,7 +6004,7 @@
         <v>2</v>
       </c>
       <c r="F94">
-        <f>SUM(G94:J94)-SUM(L94:N94)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J94">
@@ -5843,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>140</v>
       </c>
@@ -5860,7 +6034,7 @@
         <v>2</v>
       </c>
       <c r="F95">
-        <f>SUM(G95:J95)-SUM(L95:N95)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H95">
@@ -5879,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>149</v>
       </c>
@@ -5896,7 +6070,7 @@
         <v>2</v>
       </c>
       <c r="F96">
-        <f>SUM(G96:J96)-SUM(L96:N96)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H96">
@@ -5912,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>154</v>
       </c>
@@ -5929,7 +6103,7 @@
         <v>2</v>
       </c>
       <c r="F97">
-        <f>SUM(G97:J97)-SUM(L97:N97)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H97">
@@ -5942,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>164</v>
       </c>
@@ -5959,7 +6133,7 @@
         <v>2</v>
       </c>
       <c r="F98">
-        <f>SUM(G98:J98)-SUM(L98:N98)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H98">
@@ -5978,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>180</v>
       </c>
@@ -5995,7 +6169,7 @@
         <v>2</v>
       </c>
       <c r="F99">
-        <f>SUM(G99:J99)-SUM(L99:N99)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H99">
@@ -6011,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>186</v>
       </c>
@@ -6028,7 +6202,7 @@
         <v>2</v>
       </c>
       <c r="F100">
-        <f>SUM(G100:J100)-SUM(L100:N100)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G100">
@@ -6050,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>202</v>
       </c>
@@ -6067,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="F101">
-        <f>SUM(G101:J101)-SUM(L101:N101)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H101">
@@ -6083,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>203</v>
       </c>
@@ -6100,7 +6274,7 @@
         <v>2</v>
       </c>
       <c r="F102">
-        <f>SUM(G102:J102)-SUM(L102:N102)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H102">
@@ -6119,7 +6293,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>204</v>
       </c>
@@ -6136,7 +6310,7 @@
         <v>2</v>
       </c>
       <c r="F103">
-        <f>SUM(G103:J103)-SUM(L103:N103)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J103">
@@ -6149,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>229</v>
       </c>
@@ -6166,7 +6340,7 @@
         <v>2</v>
       </c>
       <c r="F104">
-        <f>SUM(G104:J104)-SUM(L104:N104)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J104">
@@ -6179,7 +6353,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>234</v>
       </c>
@@ -6196,7 +6370,7 @@
         <v>2</v>
       </c>
       <c r="F105">
-        <f>SUM(G105:J105)-SUM(L105:N105)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J105">
@@ -6209,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>240</v>
       </c>
@@ -6226,7 +6400,7 @@
         <v>2</v>
       </c>
       <c r="F106">
-        <f>SUM(G106:J106)-SUM(L106:N106)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G106">
@@ -6242,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>241</v>
       </c>
@@ -6259,7 +6433,7 @@
         <v>2</v>
       </c>
       <c r="F107">
-        <f>SUM(G107:J107)-SUM(L107:N107)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H107">
@@ -6275,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>242</v>
       </c>
@@ -6292,7 +6466,7 @@
         <v>2</v>
       </c>
       <c r="F108">
-        <f>SUM(G108:J108)-SUM(L108:N108)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H108">
@@ -6305,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>243</v>
       </c>
@@ -6322,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="F109">
-        <f>SUM(G109:J109)-SUM(L109:N109)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H109">
@@ -6335,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>262</v>
       </c>
@@ -6352,7 +6526,7 @@
         <v>2</v>
       </c>
       <c r="F110">
-        <f>SUM(G110:J110)-SUM(L110:N110)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H110">
@@ -6368,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>269</v>
       </c>
@@ -6385,7 +6559,7 @@
         <v>2</v>
       </c>
       <c r="F111">
-        <f>SUM(G111:J111)-SUM(L111:N111)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H111">
@@ -6407,7 +6581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4</v>
       </c>
@@ -6424,7 +6598,7 @@
         <v>2</v>
       </c>
       <c r="F112">
-        <f>SUM(G112:J112)-SUM(L112:N112)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I112">
@@ -6437,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>6</v>
       </c>
@@ -6454,7 +6628,7 @@
         <v>2</v>
       </c>
       <c r="F113">
-        <f>SUM(G113:J113)-SUM(L113:N113)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O113">
@@ -6464,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>11</v>
       </c>
@@ -6481,7 +6655,7 @@
         <v>2</v>
       </c>
       <c r="F114">
-        <f>SUM(G114:J114)-SUM(L114:N114)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H114">
@@ -6497,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>13</v>
       </c>
@@ -6514,7 +6688,7 @@
         <v>2</v>
       </c>
       <c r="F115">
-        <f>SUM(G115:J115)-SUM(L115:N115)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G115">
@@ -6536,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>24</v>
       </c>
@@ -6553,14 +6727,14 @@
         <v>2</v>
       </c>
       <c r="F116">
-        <f>SUM(G116:J116)-SUM(L116:N116)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>26</v>
       </c>
@@ -6577,7 +6751,7 @@
         <v>2</v>
       </c>
       <c r="F117">
-        <f>SUM(G117:J117)-SUM(L117:N117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O117">
@@ -6587,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>27</v>
       </c>
@@ -6604,7 +6778,7 @@
         <v>2</v>
       </c>
       <c r="F118">
-        <f>SUM(G118:J118)-SUM(L118:N118)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H118">
@@ -6623,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>28</v>
       </c>
@@ -6640,7 +6814,7 @@
         <v>2</v>
       </c>
       <c r="F119">
-        <f>SUM(G119:J119)-SUM(L119:N119)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H119">
@@ -6656,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>40</v>
       </c>
@@ -6673,7 +6847,7 @@
         <v>2</v>
       </c>
       <c r="F120">
-        <f>SUM(G120:J120)-SUM(L120:N120)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H120">
@@ -6695,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>68</v>
       </c>
@@ -6712,7 +6886,7 @@
         <v>2</v>
       </c>
       <c r="F121">
-        <f>SUM(G121:J121)-SUM(L121:N121)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O121">
@@ -6725,7 +6899,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>69</v>
       </c>
@@ -6742,7 +6916,7 @@
         <v>2</v>
       </c>
       <c r="F122">
-        <f>SUM(G122:J122)-SUM(L122:N122)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O122">
@@ -6752,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>70</v>
       </c>
@@ -6769,7 +6943,7 @@
         <v>2</v>
       </c>
       <c r="F123">
-        <f>SUM(G123:J123)-SUM(L123:N123)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J123">
@@ -6788,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>74</v>
       </c>
@@ -6805,7 +6979,7 @@
         <v>2</v>
       </c>
       <c r="F124">
-        <f>SUM(G124:J124)-SUM(L124:N124)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O124">
@@ -6815,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>78</v>
       </c>
@@ -6832,7 +7006,7 @@
         <v>2</v>
       </c>
       <c r="F125">
-        <f>SUM(G125:J125)-SUM(L125:N125)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O125">
@@ -6842,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>82</v>
       </c>
@@ -6859,7 +7033,7 @@
         <v>2</v>
       </c>
       <c r="F126">
-        <f>SUM(G126:J126)-SUM(L126:N126)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R126">
@@ -6869,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>86</v>
       </c>
@@ -6886,7 +7060,7 @@
         <v>2</v>
       </c>
       <c r="F127">
-        <f>SUM(G127:J127)-SUM(L127:N127)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J127">
@@ -6902,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>89</v>
       </c>
@@ -6919,7 +7093,7 @@
         <v>2</v>
       </c>
       <c r="F128">
-        <f>SUM(G128:J128)-SUM(L128:N128)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O128">
@@ -6929,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>90</v>
       </c>
@@ -6946,7 +7120,7 @@
         <v>2</v>
       </c>
       <c r="F129">
-        <f>SUM(G129:J129)-SUM(L129:N129)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O129">
@@ -6956,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>93</v>
       </c>
@@ -6973,7 +7147,7 @@
         <v>2</v>
       </c>
       <c r="F130">
-        <f>SUM(G130:J130)-SUM(L130:N130)</f>
+        <f t="shared" ref="F130:F193" si="2">SUM(G130:J130)-SUM(L130:N130)</f>
         <v>0</v>
       </c>
       <c r="H130">
@@ -6989,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>97</v>
       </c>
@@ -7006,7 +7180,7 @@
         <v>2</v>
       </c>
       <c r="F131">
-        <f>SUM(G131:J131)-SUM(L131:N131)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H131">
@@ -7025,7 +7199,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>100</v>
       </c>
@@ -7042,7 +7216,7 @@
         <v>2</v>
       </c>
       <c r="F132">
-        <f>SUM(G132:J132)-SUM(L132:N132)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H132">
@@ -7058,7 +7232,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>102</v>
       </c>
@@ -7075,7 +7249,7 @@
         <v>2</v>
       </c>
       <c r="F133">
-        <f>SUM(G133:J133)-SUM(L133:N133)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H133">
@@ -7091,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>103</v>
       </c>
@@ -7108,7 +7282,7 @@
         <v>2</v>
       </c>
       <c r="F134">
-        <f>SUM(G134:J134)-SUM(L134:N134)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O134">
@@ -7118,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>105</v>
       </c>
@@ -7135,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="F135">
-        <f>SUM(G135:J135)-SUM(L135:N135)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H135">
@@ -7151,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>107</v>
       </c>
@@ -7168,7 +7342,7 @@
         <v>2</v>
       </c>
       <c r="F136">
-        <f>SUM(G136:J136)-SUM(L136:N136)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H136">
@@ -7184,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>110</v>
       </c>
@@ -7201,7 +7375,7 @@
         <v>2</v>
       </c>
       <c r="F137">
-        <f>SUM(G137:J137)-SUM(L137:N137)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O137">
@@ -7211,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>118</v>
       </c>
@@ -7228,7 +7402,7 @@
         <v>2</v>
       </c>
       <c r="F138">
-        <f>SUM(G138:J138)-SUM(L138:N138)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O138">
@@ -7238,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>120</v>
       </c>
@@ -7255,7 +7429,7 @@
         <v>2</v>
       </c>
       <c r="F139">
-        <f>SUM(G139:J139)-SUM(L139:N139)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J139">
@@ -7268,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>128</v>
       </c>
@@ -7285,7 +7459,7 @@
         <v>2</v>
       </c>
       <c r="F140">
-        <f>SUM(G140:J140)-SUM(L140:N140)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J140">
@@ -7301,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>130</v>
       </c>
@@ -7318,7 +7492,7 @@
         <v>2</v>
       </c>
       <c r="F141">
-        <f>SUM(G141:J141)-SUM(L141:N141)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J141">
@@ -7331,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>131</v>
       </c>
@@ -7348,7 +7522,7 @@
         <v>2</v>
       </c>
       <c r="F142">
-        <f>SUM(G142:J142)-SUM(L142:N142)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H142">
@@ -7364,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>132</v>
       </c>
@@ -7381,7 +7555,7 @@
         <v>2</v>
       </c>
       <c r="F143">
-        <f>SUM(G143:J143)-SUM(L143:N143)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R143">
@@ -7391,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>133</v>
       </c>
@@ -7408,7 +7582,7 @@
         <v>2</v>
       </c>
       <c r="F144">
-        <f>SUM(G144:J144)-SUM(L144:N144)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P144">
@@ -7418,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>141</v>
       </c>
@@ -7435,14 +7609,14 @@
         <v>2</v>
       </c>
       <c r="F145">
-        <f>SUM(G145:J145)-SUM(L145:N145)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>143</v>
       </c>
@@ -7459,7 +7633,7 @@
         <v>2</v>
       </c>
       <c r="F146">
-        <f>SUM(G146:J146)-SUM(L146:N146)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H146">
@@ -7472,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>147</v>
       </c>
@@ -7489,7 +7663,7 @@
         <v>2</v>
       </c>
       <c r="F147">
-        <f>SUM(G147:J147)-SUM(L147:N147)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O147">
@@ -7502,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>148</v>
       </c>
@@ -7519,7 +7693,7 @@
         <v>2</v>
       </c>
       <c r="F148">
-        <f>SUM(G148:J148)-SUM(L148:N148)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H148">
@@ -7535,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>153</v>
       </c>
@@ -7552,7 +7726,7 @@
         <v>2</v>
       </c>
       <c r="F149">
-        <f>SUM(G149:J149)-SUM(L149:N149)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O149">
@@ -7562,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>166</v>
       </c>
@@ -7579,7 +7753,7 @@
         <v>2</v>
       </c>
       <c r="F150">
-        <f>SUM(G150:J150)-SUM(L150:N150)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R150">
@@ -7589,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>168</v>
       </c>
@@ -7606,7 +7780,7 @@
         <v>2</v>
       </c>
       <c r="F151">
-        <f>SUM(G151:J151)-SUM(L151:N151)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P151">
@@ -7616,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>171</v>
       </c>
@@ -7633,7 +7807,7 @@
         <v>2</v>
       </c>
       <c r="F152">
-        <f>SUM(G152:J152)-SUM(L152:N152)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H152">
@@ -7649,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>176</v>
       </c>
@@ -7666,7 +7840,7 @@
         <v>2</v>
       </c>
       <c r="F153">
-        <f>SUM(G153:J153)-SUM(L153:N153)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O153">
@@ -7676,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>177</v>
       </c>
@@ -7693,7 +7867,7 @@
         <v>2</v>
       </c>
       <c r="F154">
-        <f>SUM(G154:J154)-SUM(L154:N154)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O154">
@@ -7703,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>184</v>
       </c>
@@ -7720,7 +7894,7 @@
         <v>2</v>
       </c>
       <c r="F155">
-        <f>SUM(G155:J155)-SUM(L155:N155)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O155">
@@ -7730,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>188</v>
       </c>
@@ -7747,7 +7921,7 @@
         <v>2</v>
       </c>
       <c r="F156">
-        <f>SUM(G156:J156)-SUM(L156:N156)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G156">
@@ -7769,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>189</v>
       </c>
@@ -7786,7 +7960,7 @@
         <v>2</v>
       </c>
       <c r="F157">
-        <f>SUM(G157:J157)-SUM(L157:N157)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H157">
@@ -7799,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>191</v>
       </c>
@@ -7816,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="F158">
-        <f>SUM(G158:J158)-SUM(L158:N158)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R158">
@@ -7826,7 +8000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>196</v>
       </c>
@@ -7843,7 +8017,7 @@
         <v>2</v>
       </c>
       <c r="F159">
-        <f>SUM(G159:J159)-SUM(L159:N159)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H159">
@@ -7859,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>197</v>
       </c>
@@ -7876,7 +8050,7 @@
         <v>2</v>
       </c>
       <c r="F160">
-        <f>SUM(G160:J160)-SUM(L160:N160)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O160">
@@ -7886,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>198</v>
       </c>
@@ -7903,7 +8077,7 @@
         <v>2</v>
       </c>
       <c r="F161">
-        <f>SUM(G161:J161)-SUM(L161:N161)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H161">
@@ -7919,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>199</v>
       </c>
@@ -7936,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="F162">
-        <f>SUM(G162:J162)-SUM(L162:N162)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O162">
@@ -7946,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>205</v>
       </c>
@@ -7963,7 +8137,7 @@
         <v>2</v>
       </c>
       <c r="F163">
-        <f>SUM(G163:J163)-SUM(L163:N163)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H163">
@@ -7976,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>209</v>
       </c>
@@ -7993,7 +8167,7 @@
         <v>2</v>
       </c>
       <c r="F164">
-        <f>SUM(G164:J164)-SUM(L164:N164)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H164">
@@ -8009,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>212</v>
       </c>
@@ -8026,7 +8200,7 @@
         <v>2</v>
       </c>
       <c r="F165">
-        <f>SUM(G165:J165)-SUM(L165:N165)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H165">
@@ -8042,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>216</v>
       </c>
@@ -8059,7 +8233,7 @@
         <v>2</v>
       </c>
       <c r="F166">
-        <f>SUM(G166:J166)-SUM(L166:N166)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J166">
@@ -8072,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>217</v>
       </c>
@@ -8089,14 +8263,14 @@
         <v>2</v>
       </c>
       <c r="F167">
-        <f>SUM(G167:J167)-SUM(L167:N167)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>218</v>
       </c>
@@ -8113,7 +8287,7 @@
         <v>2</v>
       </c>
       <c r="F168">
-        <f>SUM(G168:J168)-SUM(L168:N168)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R168">
@@ -8123,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>220</v>
       </c>
@@ -8140,7 +8314,7 @@
         <v>2</v>
       </c>
       <c r="F169">
-        <f>SUM(G169:J169)-SUM(L169:N169)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O169">
@@ -8153,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>223</v>
       </c>
@@ -8170,7 +8344,7 @@
         <v>2</v>
       </c>
       <c r="F170">
-        <f>SUM(G170:J170)-SUM(L170:N170)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H170">
@@ -8186,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>232</v>
       </c>
@@ -8203,7 +8377,7 @@
         <v>2</v>
       </c>
       <c r="F171">
-        <f>SUM(G171:J171)-SUM(L171:N171)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H171">
@@ -8216,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>235</v>
       </c>
@@ -8233,7 +8407,7 @@
         <v>2</v>
       </c>
       <c r="F172">
-        <f>SUM(G172:J172)-SUM(L172:N172)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S172">
@@ -8243,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>236</v>
       </c>
@@ -8260,7 +8434,7 @@
         <v>2</v>
       </c>
       <c r="F173">
-        <f>SUM(G173:J173)-SUM(L173:N173)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J173">
@@ -8273,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>239</v>
       </c>
@@ -8290,7 +8464,7 @@
         <v>2</v>
       </c>
       <c r="F174">
-        <f>SUM(G174:J174)-SUM(L174:N174)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H174">
@@ -8306,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>247</v>
       </c>
@@ -8323,7 +8497,7 @@
         <v>2</v>
       </c>
       <c r="F175">
-        <f>SUM(G175:J175)-SUM(L175:N175)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O175">
@@ -8336,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>248</v>
       </c>
@@ -8353,14 +8527,14 @@
         <v>2</v>
       </c>
       <c r="F176">
-        <f>SUM(G176:J176)-SUM(L176:N176)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>251</v>
       </c>
@@ -8377,7 +8551,7 @@
         <v>2</v>
       </c>
       <c r="F177">
-        <f>SUM(G177:J177)-SUM(L177:N177)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H177">
@@ -8390,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>259</v>
       </c>
@@ -8407,7 +8581,7 @@
         <v>2</v>
       </c>
       <c r="F178">
-        <f>SUM(G178:J178)-SUM(L178:N178)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G178">
@@ -8420,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>260</v>
       </c>
@@ -8437,7 +8611,7 @@
         <v>2</v>
       </c>
       <c r="F179">
-        <f>SUM(G179:J179)-SUM(L179:N179)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H179">
@@ -8453,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>261</v>
       </c>
@@ -8470,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="F180">
-        <f>SUM(G180:J180)-SUM(L180:N180)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O180">
@@ -8480,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>265</v>
       </c>
@@ -8497,7 +8671,7 @@
         <v>2</v>
       </c>
       <c r="F181">
-        <f>SUM(G181:J181)-SUM(L181:N181)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H181">
@@ -8510,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>266</v>
       </c>
@@ -8527,7 +8701,7 @@
         <v>2</v>
       </c>
       <c r="F182">
-        <f>SUM(G182:J182)-SUM(L182:N182)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O182">
@@ -8537,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>271</v>
       </c>
@@ -8554,7 +8728,7 @@
         <v>2</v>
       </c>
       <c r="F183">
-        <f>SUM(G183:J183)-SUM(L183:N183)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O183">
@@ -8564,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>274</v>
       </c>
@@ -8581,7 +8755,7 @@
         <v>2</v>
       </c>
       <c r="F184">
-        <f>SUM(G184:J184)-SUM(L184:N184)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O184">
@@ -8591,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>9</v>
       </c>
@@ -8608,14 +8782,14 @@
         <v>2</v>
       </c>
       <c r="F185">
-        <f>SUM(G185:J185)-SUM(L185:N185)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>37</v>
       </c>
@@ -8632,14 +8806,14 @@
         <v>2</v>
       </c>
       <c r="F186">
-        <f>SUM(G186:J186)-SUM(L186:N186)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>48</v>
       </c>
@@ -8656,14 +8830,14 @@
         <v>2</v>
       </c>
       <c r="F187">
-        <f>SUM(G187:J187)-SUM(L187:N187)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>63</v>
       </c>
@@ -8680,14 +8854,14 @@
         <v>2</v>
       </c>
       <c r="F188">
-        <f>SUM(G188:J188)-SUM(L188:N188)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>71</v>
       </c>
@@ -8704,7 +8878,7 @@
         <v>2</v>
       </c>
       <c r="F189">
-        <f>SUM(G189:J189)-SUM(L189:N189)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H189">
@@ -8717,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>104</v>
       </c>
@@ -8734,14 +8908,14 @@
         <v>2</v>
       </c>
       <c r="F190">
-        <f>SUM(G190:J190)-SUM(L190:N190)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V190">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>116</v>
       </c>
@@ -8758,14 +8932,14 @@
         <v>2</v>
       </c>
       <c r="F191">
-        <f>SUM(G191:J191)-SUM(L191:N191)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>124</v>
       </c>
@@ -8782,14 +8956,14 @@
         <v>2</v>
       </c>
       <c r="F192">
-        <f>SUM(G192:J192)-SUM(L192:N192)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>152</v>
       </c>
@@ -8806,14 +8980,14 @@
         <v>2</v>
       </c>
       <c r="F193">
-        <f>SUM(G193:J193)-SUM(L193:N193)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>161</v>
       </c>
@@ -8830,14 +9004,14 @@
         <v>2</v>
       </c>
       <c r="F194">
-        <f>SUM(G194:J194)-SUM(L194:N194)</f>
+        <f t="shared" ref="F194:F257" si="3">SUM(G194:J194)-SUM(L194:N194)</f>
         <v>0</v>
       </c>
       <c r="V194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>163</v>
       </c>
@@ -8854,14 +9028,14 @@
         <v>2</v>
       </c>
       <c r="F195">
-        <f>SUM(G195:J195)-SUM(L195:N195)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>167</v>
       </c>
@@ -8878,7 +9052,7 @@
         <v>2</v>
       </c>
       <c r="F196">
-        <f>SUM(G196:J196)-SUM(L196:N196)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U196" t="s">
@@ -8888,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>172</v>
       </c>
@@ -8905,14 +9079,14 @@
         <v>2</v>
       </c>
       <c r="F197">
-        <f>SUM(G197:J197)-SUM(L197:N197)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V197">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>175</v>
       </c>
@@ -8929,14 +9103,14 @@
         <v>2</v>
       </c>
       <c r="F198">
-        <f>SUM(G198:J198)-SUM(L198:N198)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>181</v>
       </c>
@@ -8953,14 +9127,14 @@
         <v>2</v>
       </c>
       <c r="F199">
-        <f>SUM(G199:J199)-SUM(L199:N199)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>200</v>
       </c>
@@ -8977,14 +9151,14 @@
         <v>2</v>
       </c>
       <c r="F200">
-        <f>SUM(G200:J200)-SUM(L200:N200)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>206</v>
       </c>
@@ -9001,14 +9175,14 @@
         <v>2</v>
       </c>
       <c r="F201">
-        <f>SUM(G201:J201)-SUM(L201:N201)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V201">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>210</v>
       </c>
@@ -9025,14 +9199,14 @@
         <v>2</v>
       </c>
       <c r="F202">
-        <f>SUM(G202:J202)-SUM(L202:N202)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V202">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>224</v>
       </c>
@@ -9049,14 +9223,14 @@
         <v>2</v>
       </c>
       <c r="F203">
-        <f>SUM(G203:J203)-SUM(L203:N203)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>230</v>
       </c>
@@ -9073,14 +9247,14 @@
         <v>2</v>
       </c>
       <c r="F204">
-        <f>SUM(G204:J204)-SUM(L204:N204)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V204">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>282</v>
       </c>
@@ -9097,14 +9271,14 @@
         <v>2</v>
       </c>
       <c r="F205">
-        <f>SUM(G205:J205)-SUM(L205:N205)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V205">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2</v>
       </c>
@@ -9121,7 +9295,7 @@
         <v>2</v>
       </c>
       <c r="F206">
-        <f>SUM(G206:J206)-SUM(L206:N206)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H206">
@@ -9137,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>22</v>
       </c>
@@ -9154,7 +9328,7 @@
         <v>2</v>
       </c>
       <c r="F207">
-        <f>SUM(G207:J207)-SUM(L207:N207)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N207">
@@ -9167,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>50</v>
       </c>
@@ -9184,7 +9358,7 @@
         <v>2</v>
       </c>
       <c r="F208">
-        <f>SUM(G208:J208)-SUM(L208:N208)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H208">
@@ -9203,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>53</v>
       </c>
@@ -9220,7 +9394,7 @@
         <v>2</v>
       </c>
       <c r="F209">
-        <f>SUM(G209:J209)-SUM(L209:N209)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="H209">
@@ -9236,7 +9410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>54</v>
       </c>
@@ -9253,7 +9427,7 @@
         <v>2</v>
       </c>
       <c r="F210">
-        <f>SUM(G210:J210)-SUM(L210:N210)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H210">
@@ -9269,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>55</v>
       </c>
@@ -9286,7 +9460,7 @@
         <v>2</v>
       </c>
       <c r="F211">
-        <f>SUM(G211:J211)-SUM(L211:N211)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J211">
@@ -9305,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>56</v>
       </c>
@@ -9322,7 +9496,7 @@
         <v>2</v>
       </c>
       <c r="F212">
-        <f>SUM(G212:J212)-SUM(L212:N212)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H212">
@@ -9341,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>64</v>
       </c>
@@ -9358,7 +9532,7 @@
         <v>2</v>
       </c>
       <c r="F213">
-        <f>SUM(G213:J213)-SUM(L213:N213)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="H213">
@@ -9377,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>80</v>
       </c>
@@ -9394,7 +9568,7 @@
         <v>2</v>
       </c>
       <c r="F214">
-        <f>SUM(G214:J214)-SUM(L214:N214)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N214">
@@ -9407,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>88</v>
       </c>
@@ -9424,7 +9598,7 @@
         <v>2</v>
       </c>
       <c r="F215">
-        <f>SUM(G215:J215)-SUM(L215:N215)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N215">
@@ -9437,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>108</v>
       </c>
@@ -9454,7 +9628,7 @@
         <v>2</v>
       </c>
       <c r="F216">
-        <f>SUM(G216:J216)-SUM(L216:N216)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H216">
@@ -9470,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>112</v>
       </c>
@@ -9487,7 +9661,7 @@
         <v>2</v>
       </c>
       <c r="F217">
-        <f>SUM(G217:J217)-SUM(L217:N217)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H217">
@@ -9506,7 +9680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>123</v>
       </c>
@@ -9523,7 +9697,7 @@
         <v>2</v>
       </c>
       <c r="F218">
-        <f>SUM(G218:J218)-SUM(L218:N218)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H218">
@@ -9542,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>134</v>
       </c>
@@ -9559,7 +9733,7 @@
         <v>2</v>
       </c>
       <c r="F219">
-        <f>SUM(G219:J219)-SUM(L219:N219)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H219">
@@ -9578,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>146</v>
       </c>
@@ -9595,7 +9769,7 @@
         <v>2</v>
       </c>
       <c r="F220">
-        <f>SUM(G220:J220)-SUM(L220:N220)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H220">
@@ -9614,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>150</v>
       </c>
@@ -9631,7 +9805,7 @@
         <v>2</v>
       </c>
       <c r="F221">
-        <f>SUM(G221:J221)-SUM(L221:N221)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N221">
@@ -9644,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>157</v>
       </c>
@@ -9661,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="F222">
-        <f>SUM(G222:J222)-SUM(L222:N222)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="L222">
@@ -9671,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>158</v>
       </c>
@@ -9688,7 +9862,7 @@
         <v>2</v>
       </c>
       <c r="F223">
-        <f>SUM(G223:J223)-SUM(L223:N223)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N223">
@@ -9698,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>169</v>
       </c>
@@ -9715,7 +9889,7 @@
         <v>2</v>
       </c>
       <c r="F224">
-        <f>SUM(G224:J224)-SUM(L224:N224)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N224">
@@ -9728,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>173</v>
       </c>
@@ -9745,7 +9919,7 @@
         <v>2</v>
       </c>
       <c r="F225">
-        <f>SUM(G225:J225)-SUM(L225:N225)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N225">
@@ -9755,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>174</v>
       </c>
@@ -9772,7 +9946,7 @@
         <v>2</v>
       </c>
       <c r="F226">
-        <f>SUM(G226:J226)-SUM(L226:N226)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H226">
@@ -9791,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>192</v>
       </c>
@@ -9808,7 +9982,7 @@
         <v>2</v>
       </c>
       <c r="F227">
-        <f>SUM(G227:J227)-SUM(L227:N227)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H227">
@@ -9827,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>195</v>
       </c>
@@ -9844,7 +10018,7 @@
         <v>2</v>
       </c>
       <c r="F228">
-        <f>SUM(G228:J228)-SUM(L228:N228)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N228">
@@ -9857,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>222</v>
       </c>
@@ -9874,7 +10048,7 @@
         <v>2</v>
       </c>
       <c r="F229">
-        <f>SUM(G229:J229)-SUM(L229:N229)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="H229">
@@ -9893,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>233</v>
       </c>
@@ -9910,7 +10084,7 @@
         <v>2</v>
       </c>
       <c r="F230">
-        <f>SUM(G230:J230)-SUM(L230:N230)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H230">
@@ -9929,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>246</v>
       </c>
@@ -9946,7 +10120,7 @@
         <v>2</v>
       </c>
       <c r="F231">
-        <f>SUM(G231:J231)-SUM(L231:N231)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H231">
@@ -9965,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>252</v>
       </c>
@@ -9982,7 +10156,7 @@
         <v>2</v>
       </c>
       <c r="F232">
-        <f>SUM(G232:J232)-SUM(L232:N232)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N232">
@@ -9992,7 +10166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>272</v>
       </c>
@@ -10009,7 +10183,7 @@
         <v>2</v>
       </c>
       <c r="F233">
-        <f>SUM(G233:J233)-SUM(L233:N233)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G233">
@@ -10031,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>281</v>
       </c>
@@ -10048,7 +10222,7 @@
         <v>2</v>
       </c>
       <c r="F234">
-        <f>SUM(G234:J234)-SUM(L234:N234)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="H234">
@@ -10064,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>3</v>
       </c>
@@ -10081,7 +10255,7 @@
         <v>2</v>
       </c>
       <c r="F235">
-        <f>SUM(G235:J235)-SUM(L235:N235)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="K235">
@@ -10094,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>35</v>
       </c>
@@ -10111,7 +10285,7 @@
         <v>2</v>
       </c>
       <c r="F236">
-        <f>SUM(G236:J236)-SUM(L236:N236)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="K236">
@@ -10127,7 +10301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>59</v>
       </c>
@@ -10144,7 +10318,7 @@
         <v>2</v>
       </c>
       <c r="F237">
-        <f>SUM(G237:J237)-SUM(L237:N237)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="H237">
@@ -10166,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>126</v>
       </c>
@@ -10183,7 +10357,7 @@
         <v>2</v>
       </c>
       <c r="F238">
-        <f>SUM(G238:J238)-SUM(L238:N238)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="K238">
@@ -10196,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>15</v>
       </c>
@@ -10213,7 +10387,7 @@
         <v>2</v>
       </c>
       <c r="F239">
-        <f>SUM(G239:J239)-SUM(L239:N239)</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="K239">
@@ -10232,7 +10406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>38</v>
       </c>
@@ -10249,7 +10423,7 @@
         <v>2</v>
       </c>
       <c r="F240">
-        <f>SUM(G240:J240)-SUM(L240:N240)</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="K240">
@@ -10268,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>214</v>
       </c>
@@ -10285,7 +10459,7 @@
         <v>2</v>
       </c>
       <c r="F241">
-        <f>SUM(G241:J241)-SUM(L241:N241)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H241">
@@ -10298,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>226</v>
       </c>
@@ -10315,7 +10489,7 @@
         <v>2</v>
       </c>
       <c r="F242">
-        <f>SUM(G242:J242)-SUM(L242:N242)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G242">
@@ -10334,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>238</v>
       </c>
@@ -10351,7 +10525,7 @@
         <v>2</v>
       </c>
       <c r="F243">
-        <f>SUM(G243:J243)-SUM(L243:N243)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I243">
@@ -10367,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>277</v>
       </c>
@@ -10384,7 +10558,7 @@
         <v>2</v>
       </c>
       <c r="F244">
-        <f>SUM(G244:J244)-SUM(L244:N244)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H244">
@@ -10397,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>156</v>
       </c>
@@ -10414,7 +10588,7 @@
         <v>2</v>
       </c>
       <c r="F245">
-        <f>SUM(G245:J245)-SUM(L245:N245)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H245">
@@ -10424,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>179</v>
       </c>
@@ -10441,7 +10615,7 @@
         <v>2</v>
       </c>
       <c r="F246">
-        <f>SUM(G246:J246)-SUM(L246:N246)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G246">
@@ -10460,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>183</v>
       </c>
@@ -10477,7 +10651,7 @@
         <v>2</v>
       </c>
       <c r="F247">
-        <f>SUM(G247:J247)-SUM(L247:N247)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G247">
@@ -10505,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>253</v>
       </c>
@@ -10522,7 +10696,7 @@
         <v>2</v>
       </c>
       <c r="F248">
-        <f>SUM(G248:J248)-SUM(L248:N248)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I248">
@@ -10538,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>258</v>
       </c>
@@ -10555,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="F249">
-        <f>SUM(G249:J249)-SUM(L249:N249)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I249">
@@ -10565,7 +10739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>278</v>
       </c>
@@ -10582,7 +10756,7 @@
         <v>2</v>
       </c>
       <c r="F250">
-        <f>SUM(G250:J250)-SUM(L250:N250)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J250">
@@ -10598,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>30</v>
       </c>
@@ -10615,7 +10789,7 @@
         <v>2</v>
       </c>
       <c r="F251">
-        <f>SUM(G251:J251)-SUM(L251:N251)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H251">
@@ -10631,7 +10805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>57</v>
       </c>
@@ -10648,7 +10822,7 @@
         <v>2</v>
       </c>
       <c r="F252">
-        <f>SUM(G252:J252)-SUM(L252:N252)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O252">
@@ -10661,7 +10835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>75</v>
       </c>
@@ -10678,7 +10852,7 @@
         <v>2</v>
       </c>
       <c r="F253">
-        <f>SUM(G253:J253)-SUM(L253:N253)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O253">
@@ -10688,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>122</v>
       </c>
@@ -10705,7 +10879,7 @@
         <v>2</v>
       </c>
       <c r="F254">
-        <f>SUM(G254:J254)-SUM(L254:N254)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R254">
@@ -10715,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>187</v>
       </c>
@@ -10732,7 +10906,7 @@
         <v>2</v>
       </c>
       <c r="F255">
-        <f>SUM(G255:J255)-SUM(L255:N255)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H255">
@@ -10748,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>231</v>
       </c>
@@ -10765,7 +10939,7 @@
         <v>2</v>
       </c>
       <c r="F256">
-        <f>SUM(G256:J256)-SUM(L256:N256)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J256">
@@ -10778,7 +10952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>249</v>
       </c>
@@ -10795,7 +10969,7 @@
         <v>2</v>
       </c>
       <c r="F257">
-        <f>SUM(G257:J257)-SUM(L257:N257)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J257">
@@ -10811,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -10828,7 +11002,7 @@
         <v>2</v>
       </c>
       <c r="F258">
-        <f>SUM(G258:J258)-SUM(L258:N258)</f>
+        <f t="shared" ref="F258:F321" si="4">SUM(G258:J258)-SUM(L258:N258)</f>
         <v>0</v>
       </c>
       <c r="H258">
@@ -10841,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>162</v>
       </c>
@@ -10858,14 +11032,14 @@
         <v>2</v>
       </c>
       <c r="F259">
-        <f>SUM(G259:J259)-SUM(L259:N259)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V259">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>25</v>
       </c>
@@ -10882,7 +11056,7 @@
         <v>2</v>
       </c>
       <c r="F260">
-        <f>SUM(G260:J260)-SUM(L260:N260)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H260">
@@ -10898,7 +11072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>41</v>
       </c>
@@ -10915,7 +11089,7 @@
         <v>2</v>
       </c>
       <c r="F261">
-        <f>SUM(G261:J261)-SUM(L261:N261)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H261">
@@ -10934,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>45</v>
       </c>
@@ -10951,7 +11125,7 @@
         <v>2</v>
       </c>
       <c r="F262">
-        <f>SUM(G262:J262)-SUM(L262:N262)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H262">
@@ -10970,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>49</v>
       </c>
@@ -10987,7 +11161,7 @@
         <v>2</v>
       </c>
       <c r="F263">
-        <f>SUM(G263:J263)-SUM(L263:N263)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H263">
@@ -11006,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>65</v>
       </c>
@@ -11023,7 +11197,7 @@
         <v>2</v>
       </c>
       <c r="F264">
-        <f>SUM(G264:J264)-SUM(L264:N264)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H264">
@@ -11042,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>201</v>
       </c>
@@ -11059,7 +11233,7 @@
         <v>2</v>
       </c>
       <c r="F265">
-        <f>SUM(G265:J265)-SUM(L265:N265)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="N265">
@@ -11072,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>213</v>
       </c>
@@ -11089,7 +11263,7 @@
         <v>2</v>
       </c>
       <c r="F266">
-        <f>SUM(G266:J266)-SUM(L266:N266)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K266">
@@ -11099,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>135</v>
       </c>
@@ -11116,7 +11290,7 @@
         <v>2</v>
       </c>
       <c r="F267">
-        <f>SUM(G267:J267)-SUM(L267:N267)</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K267">
@@ -11132,7 +11306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>42</v>
       </c>
@@ -11149,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="F268">
-        <f>SUM(G268:J268)-SUM(L268:N268)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G268">
@@ -11171,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>5</v>
       </c>
@@ -11188,14 +11362,14 @@
         <v>1</v>
       </c>
       <c r="F269">
-        <f>SUM(G269:J269)-SUM(L269:N269)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>7</v>
       </c>
@@ -11212,7 +11386,7 @@
         <v>1</v>
       </c>
       <c r="F270">
-        <f>SUM(G270:J270)-SUM(L270:N270)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G270">
@@ -11228,7 +11402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>10</v>
       </c>
@@ -11245,7 +11419,7 @@
         <v>1</v>
       </c>
       <c r="F271">
-        <f>SUM(G271:J271)-SUM(L271:N271)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G271">
@@ -11258,7 +11432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>43</v>
       </c>
@@ -11275,7 +11449,7 @@
         <v>1</v>
       </c>
       <c r="F272">
-        <f>SUM(G272:J272)-SUM(L272:N272)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G272">
@@ -11291,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>67</v>
       </c>
@@ -11308,7 +11482,7 @@
         <v>1</v>
       </c>
       <c r="F273">
-        <f>SUM(G273:J273)-SUM(L273:N273)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H273">
@@ -11324,7 +11498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>81</v>
       </c>
@@ -11341,7 +11515,7 @@
         <v>1</v>
       </c>
       <c r="F274">
-        <f>SUM(G274:J274)-SUM(L274:N274)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G274">
@@ -11354,7 +11528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>109</v>
       </c>
@@ -11371,7 +11545,7 @@
         <v>1</v>
       </c>
       <c r="F275">
-        <f>SUM(G275:J275)-SUM(L275:N275)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G275">
@@ -11384,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>114</v>
       </c>
@@ -11401,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="F276">
-        <f>SUM(G276:J276)-SUM(L276:N276)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H276">
@@ -11420,7 +11594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>117</v>
       </c>
@@ -11437,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="F277">
-        <f>SUM(G277:J277)-SUM(L277:N277)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G277">
@@ -11459,7 +11633,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="278" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>142</v>
       </c>
@@ -11476,7 +11650,7 @@
         <v>1</v>
       </c>
       <c r="F278">
-        <f>SUM(G278:J278)-SUM(L278:N278)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H278">
@@ -11492,7 +11666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>207</v>
       </c>
@@ -11509,7 +11683,7 @@
         <v>1</v>
       </c>
       <c r="F279">
-        <f>SUM(G279:J279)-SUM(L279:N279)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H279">
@@ -11522,7 +11696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>215</v>
       </c>
@@ -11539,7 +11713,7 @@
         <v>1</v>
       </c>
       <c r="F280">
-        <f>SUM(G280:J280)-SUM(L280:N280)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H280">
@@ -11555,7 +11729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>219</v>
       </c>
@@ -11572,7 +11746,7 @@
         <v>1</v>
       </c>
       <c r="F281">
-        <f>SUM(G281:J281)-SUM(L281:N281)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H281">
@@ -11591,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>244</v>
       </c>
@@ -11608,7 +11782,7 @@
         <v>1</v>
       </c>
       <c r="F282">
-        <f>SUM(G282:J282)-SUM(L282:N282)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G282">
@@ -11624,7 +11798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>245</v>
       </c>
@@ -11641,7 +11815,7 @@
         <v>1</v>
       </c>
       <c r="F283">
-        <f>SUM(G283:J283)-SUM(L283:N283)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G283">
@@ -11657,7 +11831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>264</v>
       </c>
@@ -11674,7 +11848,7 @@
         <v>1</v>
       </c>
       <c r="F284">
-        <f>SUM(G284:J284)-SUM(L284:N284)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H284">
@@ -11708,69 +11882,69 @@
       <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>564</v>
       </c>

--- a/data/derived/public/q6_coding_jh_pk.xlsx
+++ b/data/derived/public/q6_coding_jh_pk.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\HEGSRR\OR-Replicability-in-Geography-Survey\data\derived\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hejunquan/Documents/GitHub/OR-Replicability-in-Geography-Survey/data/derived/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2DDA35-4ACF-491A-BAC9-171DBB13EF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE11909-D37C-2A42-97DD-3B59BBD65A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="32680" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q6_coding_jh" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">q6_coding_jh!$A$1:$W$284</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">q6_coding_jh!$A$1:$Y$284</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="620">
   <si>
     <t>ResponseId</t>
   </si>
@@ -1931,6 +1931,9 @@
   </si>
   <si>
     <t>agreed, that's why they only have internal validation code. In most cases this code is used for internal robustness/sensitivity checks</t>
+  </si>
+  <si>
+    <t>resolved</t>
   </si>
 </sst>
 </file>
@@ -2774,23 +2777,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X284"/>
+  <dimension ref="A1:Y284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X36" sqref="X36"/>
+      <selection pane="bottomRight" activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="110.140625" style="1" customWidth="1"/>
-    <col min="4" max="20" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="93.5" style="1" customWidth="1"/>
+    <col min="4" max="20" width="15.5" customWidth="1"/>
+    <col min="23" max="23" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>570</v>
       </c>
@@ -2863,241 +2867,247 @@
       <c r="X1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>SUM(G2:J2)-SUM(L2:N2)</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>598</v>
+      </c>
+      <c r="X2" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>SUM(G3:J3)-SUM(L3:N3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>601</v>
+      </c>
+      <c r="X3" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>SUM(G4:J4)-SUM(L4:N4)</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>381</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>586</v>
+      </c>
+      <c r="X4" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>257</v>
+      </c>
+      <c r="B5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>SUM(G5:J5)-SUM(L5:N5)</f>
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>588</v>
+      </c>
+      <c r="X5" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F65" si="0">SUM(G2:J2)-SUM(L2:N2)</f>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>SUM(G6:J6)-SUM(L6:N6)</f>
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
         <v>580</v>
-      </c>
-      <c r="X2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3" t="s">
-        <v>581</v>
-      </c>
-      <c r="X3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4" t="s">
-        <v>582</v>
-      </c>
-      <c r="X4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5" t="s">
-        <v>583</v>
-      </c>
-      <c r="X5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>113</v>
-      </c>
-      <c r="B6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6" t="s">
-        <v>584</v>
       </c>
       <c r="X6" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>585</v>
+        <v>145</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="U7" t="s">
-        <v>381</v>
+        <f>SUM(G7:J7)-SUM(L7:N7)</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="V7">
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="X7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>433</v>
+        <v>189</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f>SUM(G8:J8)-SUM(L8:N8)</f>
         <v>2</v>
       </c>
       <c r="H8">
@@ -3106,31 +3116,43 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
       <c r="V8">
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="X8" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>440</v>
+        <v>223</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>441</v>
+        <v>224</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f>SUM(G9:J9)-SUM(L9:N9)</f>
         <v>2</v>
       </c>
       <c r="H9">
@@ -3139,53 +3161,62 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="S9">
+      <c r="O9">
         <v>1</v>
       </c>
       <c r="V9">
         <v>1</v>
       </c>
       <c r="W9" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="X9" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>503</v>
+        <v>440</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>504</v>
+        <v>441</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I10">
+        <f>SUM(G10:J10)-SUM(L10:N10)</f>
+        <v>2</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
       <c r="V10">
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="X10" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>60</v>
       </c>
@@ -3199,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f>SUM(G11:J11)-SUM(L11:N11)</f>
         <v>1</v>
       </c>
       <c r="J11">
@@ -3223,704 +3254,776 @@
       <c r="X11" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>308</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>157</v>
+        <v>309</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f>SUM(G12:J12)-SUM(L12:N12)</f>
+        <v>2</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="P12">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>1</v>
       </c>
       <c r="V12">
         <v>1</v>
       </c>
       <c r="W12" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="X12" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(G13:J13)-SUM(L13:N13)</f>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
+      <c r="N13">
         <v>1</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
       <c r="V13">
         <v>1</v>
       </c>
       <c r="W13" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="X13" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="R14">
+        <f>SUM(G14:J14)-SUM(L14:N14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="T14">
         <v>1</v>
       </c>
       <c r="V14">
         <v>1</v>
       </c>
       <c r="W14" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="X14" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>594</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(G15:J15)-SUM(L15:N15)</f>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="K15">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="S15">
         <v>1</v>
       </c>
       <c r="V15">
         <v>1</v>
       </c>
       <c r="W15" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="X15" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(G16:J16)-SUM(L16:N16)</f>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
       <c r="V16">
         <v>1</v>
       </c>
       <c r="W16" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="X16" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="T17">
+        <f>SUM(G17:J17)-SUM(L17:N17)</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>1</v>
       </c>
       <c r="V17">
         <v>1</v>
       </c>
       <c r="W17" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="X17" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>594</v>
+        <v>301</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(G18:J18)-SUM(L18:N18)</f>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
       <c r="N18">
         <v>1</v>
       </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
       <c r="V18">
         <v>1</v>
       </c>
       <c r="W18" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="X18" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>364</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>151</v>
+        <v>365</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(G19:J19)-SUM(L19:N19)</f>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
       <c r="O19">
         <v>1</v>
       </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
       <c r="V19">
         <v>1</v>
       </c>
       <c r="W19" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="X19" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>407</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>191</v>
+        <v>408</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20">
+        <f>SUM(G20:J20)-SUM(L20:N20)</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>1</v>
       </c>
       <c r="V20">
         <v>1</v>
       </c>
       <c r="W20" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="X20" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
-        <v>286</v>
+        <v>464</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>287</v>
+        <v>465</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21">
+        <f>SUM(G21:J21)-SUM(L21:N21)</f>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="O21">
         <v>1</v>
       </c>
       <c r="V21">
         <v>1</v>
       </c>
       <c r="W21" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="X21" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>301</v>
+        <v>445</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
+        <f>SUM(G22:J22)-SUM(L22:N22)</f>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
       <c r="W22" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="X22" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>SUM(G23:J23)-SUM(L23:N23)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
+        <v>578</v>
+      </c>
+      <c r="X23" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>273</v>
+      </c>
+      <c r="B24" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f>SUM(G24:J24)-SUM(L24:N24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
+        <v>606</v>
+      </c>
+      <c r="X24" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>SUM(G25:J25)-SUM(L25:N25)</f>
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
+        <v>591</v>
+      </c>
+      <c r="X25" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>182</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>358</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23" t="s">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>SUM(G26:J26)-SUM(L26:N26)</f>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26" t="s">
         <v>600</v>
       </c>
-      <c r="X23" t="s">
+      <c r="X26" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>185</v>
-      </c>
-      <c r="B24" t="s">
-        <v>364</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24" t="s">
+      <c r="Y26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>250</v>
+      </c>
+      <c r="B27" t="s">
+        <v>489</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>SUM(G27:J27)-SUM(L27:N27)</f>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27" t="s">
         <v>600</v>
       </c>
-      <c r="X24" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>194</v>
-      </c>
-      <c r="B25" t="s">
-        <v>382</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25" t="s">
-        <v>601</v>
-      </c>
-      <c r="X25" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>208</v>
-      </c>
-      <c r="B26" t="s">
-        <v>407</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26" t="s">
-        <v>602</v>
-      </c>
-      <c r="X26" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>237</v>
-      </c>
-      <c r="B27" t="s">
-        <v>464</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27" t="s">
-        <v>603</v>
-      </c>
       <c r="X27" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>489</v>
+        <v>156</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>490</v>
+        <v>157</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O28">
+        <f>SUM(G28:J28)-SUM(L28:N28)</f>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="P28">
         <v>1</v>
       </c>
       <c r="V28">
         <v>1</v>
       </c>
       <c r="W28" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="X28" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>444</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>445</v>
+        <v>95</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(G29:J29)-SUM(L29:N29)</f>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
       </c>
       <c r="V29">
         <v>1</v>
       </c>
       <c r="W29" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="X29" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(G30:J30)-SUM(L30:N30)</f>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="T30">
+      <c r="I30">
         <v>1</v>
       </c>
       <c r="V30">
         <v>1</v>
       </c>
       <c r="W30" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="X30" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
-        <v>535</v>
+        <v>432</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>536</v>
+        <v>433</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(G31:J31)-SUM(L31:N31)</f>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="N31">
+      <c r="I31">
         <v>1</v>
       </c>
       <c r="V31">
         <v>1</v>
       </c>
       <c r="W31" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="X31" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>129</v>
       </c>
@@ -3937,7 +4040,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f>SUM(G32:J32)-SUM(L32:N32)</f>
         <v>2</v>
       </c>
       <c r="H32">
@@ -3950,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>276</v>
       </c>
@@ -3967,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f>SUM(G33:J33)-SUM(L33:N33)</f>
         <v>3</v>
       </c>
       <c r="H33">
@@ -3986,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>280</v>
       </c>
@@ -4003,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f>SUM(G34:J34)-SUM(L34:N34)</f>
         <v>3</v>
       </c>
       <c r="H34">
@@ -4019,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8</v>
       </c>
@@ -4036,7 +4139,7 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f>SUM(G35:J35)-SUM(L35:N35)</f>
         <v>2</v>
       </c>
       <c r="I35">
@@ -4052,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>18</v>
       </c>
@@ -4069,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f>SUM(G36:J36)-SUM(L36:N36)</f>
         <v>2</v>
       </c>
       <c r="G36">
@@ -4082,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>20</v>
       </c>
@@ -4099,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f>SUM(G37:J37)-SUM(L37:N37)</f>
         <v>2</v>
       </c>
       <c r="H37">
@@ -4112,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>21</v>
       </c>
@@ -4129,7 +4232,7 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f>SUM(G38:J38)-SUM(L38:N38)</f>
         <v>2</v>
       </c>
       <c r="I38">
@@ -4145,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>31</v>
       </c>
@@ -4162,7 +4265,7 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f>SUM(G39:J39)-SUM(L39:N39)</f>
         <v>2</v>
       </c>
       <c r="I39">
@@ -4175,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>32</v>
       </c>
@@ -4192,7 +4295,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f>SUM(G40:J40)-SUM(L40:N40)</f>
         <v>2</v>
       </c>
       <c r="H40">
@@ -4211,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>36</v>
       </c>
@@ -4228,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f>SUM(G41:J41)-SUM(L41:N41)</f>
         <v>2</v>
       </c>
       <c r="I41">
@@ -4244,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>58</v>
       </c>
@@ -4261,7 +4364,7 @@
         <v>2</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f>SUM(G42:J42)-SUM(L42:N42)</f>
         <v>2</v>
       </c>
       <c r="H42">
@@ -4280,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>62</v>
       </c>
@@ -4297,7 +4400,7 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f>SUM(G43:J43)-SUM(L43:N43)</f>
         <v>2</v>
       </c>
       <c r="G43">
@@ -4313,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>83</v>
       </c>
@@ -4330,7 +4433,7 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f>SUM(G44:J44)-SUM(L44:N44)</f>
         <v>2</v>
       </c>
       <c r="I44">
@@ -4343,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>91</v>
       </c>
@@ -4360,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f>SUM(G45:J45)-SUM(L45:N45)</f>
         <v>2</v>
       </c>
       <c r="G45">
@@ -4382,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>99</v>
       </c>
@@ -4399,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f>SUM(G46:J46)-SUM(L46:N46)</f>
         <v>2</v>
       </c>
       <c r="H46">
@@ -4421,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>101</v>
       </c>
@@ -4438,7 +4541,7 @@
         <v>2</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
+        <f>SUM(G47:J47)-SUM(L47:N47)</f>
         <v>3</v>
       </c>
       <c r="G47">
@@ -4472,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>115</v>
       </c>
@@ -4489,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f>SUM(G48:J48)-SUM(L48:N48)</f>
         <v>2</v>
       </c>
       <c r="H48">
@@ -4514,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>121</v>
       </c>
@@ -4531,7 +4634,7 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
+        <f>SUM(G49:J49)-SUM(L49:N49)</f>
         <v>2</v>
       </c>
       <c r="H49">
@@ -4547,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>136</v>
       </c>
@@ -4564,7 +4667,7 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f>SUM(G50:J50)-SUM(L50:N50)</f>
         <v>2</v>
       </c>
       <c r="H50">
@@ -4580,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>145</v>
       </c>
@@ -4597,7 +4700,7 @@
         <v>2</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f>SUM(G51:J51)-SUM(L51:N51)</f>
         <v>2</v>
       </c>
       <c r="H51">
@@ -4613,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>159</v>
       </c>
@@ -4630,7 +4733,7 @@
         <v>2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f>SUM(G52:J52)-SUM(L52:N52)</f>
         <v>2</v>
       </c>
       <c r="H52">
@@ -4643,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>160</v>
       </c>
@@ -4660,7 +4763,7 @@
         <v>2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f>SUM(G53:J53)-SUM(L53:N53)</f>
         <v>2</v>
       </c>
       <c r="I53">
@@ -4673,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>165</v>
       </c>
@@ -4690,7 +4793,7 @@
         <v>2</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f>SUM(G54:J54)-SUM(L54:N54)</f>
         <v>2</v>
       </c>
       <c r="H54">
@@ -4706,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>170</v>
       </c>
@@ -4723,7 +4826,7 @@
         <v>2</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f>SUM(G55:J55)-SUM(L55:N55)</f>
         <v>2</v>
       </c>
       <c r="H55">
@@ -4736,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>178</v>
       </c>
@@ -4753,7 +4856,7 @@
         <v>2</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f>SUM(G56:J56)-SUM(L56:N56)</f>
         <v>2</v>
       </c>
       <c r="H56">
@@ -4769,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>190</v>
       </c>
@@ -4786,7 +4889,7 @@
         <v>2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f>SUM(G57:J57)-SUM(L57:N57)</f>
         <v>2</v>
       </c>
       <c r="H57">
@@ -4802,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>211</v>
       </c>
@@ -4819,7 +4922,7 @@
         <v>2</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f>SUM(G58:J58)-SUM(L58:N58)</f>
         <v>2</v>
       </c>
       <c r="H58">
@@ -4832,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>228</v>
       </c>
@@ -4849,7 +4952,7 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f>SUM(G59:J59)-SUM(L59:N59)</f>
         <v>3</v>
       </c>
       <c r="G59">
@@ -4868,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>254</v>
       </c>
@@ -4885,7 +4988,7 @@
         <v>2</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f>SUM(G60:J60)-SUM(L60:N60)</f>
         <v>2</v>
       </c>
       <c r="G60">
@@ -4904,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>255</v>
       </c>
@@ -4921,7 +5024,7 @@
         <v>2</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f>SUM(G61:J61)-SUM(L61:N61)</f>
         <v>2</v>
       </c>
       <c r="H61">
@@ -4940,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>263</v>
       </c>
@@ -4957,7 +5060,7 @@
         <v>2</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f>SUM(G62:J62)-SUM(L62:N62)</f>
         <v>2</v>
       </c>
       <c r="H62">
@@ -4970,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>267</v>
       </c>
@@ -4987,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f>SUM(G63:J63)-SUM(L63:N63)</f>
         <v>2</v>
       </c>
       <c r="H63">
@@ -5000,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>268</v>
       </c>
@@ -5017,7 +5120,7 @@
         <v>2</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f>SUM(G64:J64)-SUM(L64:N64)</f>
         <v>2</v>
       </c>
       <c r="H64">
@@ -5030,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>270</v>
       </c>
@@ -5047,7 +5150,7 @@
         <v>2</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f>SUM(G65:J65)-SUM(L65:N65)</f>
         <v>2</v>
       </c>
       <c r="H65">
@@ -5060,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>275</v>
       </c>
@@ -5077,7 +5180,7 @@
         <v>2</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F129" si="1">SUM(G66:J66)-SUM(L66:N66)</f>
+        <f>SUM(G66:J66)-SUM(L66:N66)</f>
         <v>2</v>
       </c>
       <c r="H66">
@@ -5090,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>279</v>
       </c>
@@ -5107,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="F67">
-        <f t="shared" si="1"/>
+        <f>SUM(G67:J67)-SUM(L67:N67)</f>
         <v>2</v>
       </c>
       <c r="H67">
@@ -5120,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>283</v>
       </c>
@@ -5137,7 +5240,7 @@
         <v>2</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
+        <f>SUM(G68:J68)-SUM(L68:N68)</f>
         <v>2</v>
       </c>
       <c r="I68">
@@ -5153,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>12</v>
       </c>
@@ -5170,7 +5273,7 @@
         <v>2</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
+        <f>SUM(G69:J69)-SUM(L69:N69)</f>
         <v>1</v>
       </c>
       <c r="G69">
@@ -5186,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>14</v>
       </c>
@@ -5203,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
+        <f>SUM(G70:J70)-SUM(L70:N70)</f>
         <v>1</v>
       </c>
       <c r="I70">
@@ -5219,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>16</v>
       </c>
@@ -5236,7 +5339,7 @@
         <v>2</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
+        <f>SUM(G71:J71)-SUM(L71:N71)</f>
         <v>2</v>
       </c>
       <c r="G71">
@@ -5261,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>17</v>
       </c>
@@ -5278,7 +5381,7 @@
         <v>2</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
+        <f>SUM(G72:J72)-SUM(L72:N72)</f>
         <v>1</v>
       </c>
       <c r="H72">
@@ -5297,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>19</v>
       </c>
@@ -5314,7 +5417,7 @@
         <v>2</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
+        <f>SUM(G73:J73)-SUM(L73:N73)</f>
         <v>1</v>
       </c>
       <c r="J73">
@@ -5324,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>23</v>
       </c>
@@ -5341,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
+        <f>SUM(G74:J74)-SUM(L74:N74)</f>
         <v>1</v>
       </c>
       <c r="G74">
@@ -5357,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>34</v>
       </c>
@@ -5374,7 +5477,7 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
+        <f>SUM(G75:J75)-SUM(L75:N75)</f>
         <v>1</v>
       </c>
       <c r="H75">
@@ -5387,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>39</v>
       </c>
@@ -5404,7 +5507,7 @@
         <v>2</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <f>SUM(G76:J76)-SUM(L76:N76)</f>
         <v>1</v>
       </c>
       <c r="H76">
@@ -5429,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>44</v>
       </c>
@@ -5446,7 +5549,7 @@
         <v>2</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
+        <f>SUM(G77:J77)-SUM(L77:N77)</f>
         <v>1</v>
       </c>
       <c r="H77">
@@ -5459,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>46</v>
       </c>
@@ -5476,7 +5579,7 @@
         <v>2</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
+        <f>SUM(G78:J78)-SUM(L78:N78)</f>
         <v>1</v>
       </c>
       <c r="I78">
@@ -5486,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>66</v>
       </c>
@@ -5503,7 +5606,7 @@
         <v>2</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
+        <f>SUM(G79:J79)-SUM(L79:N79)</f>
         <v>1</v>
       </c>
       <c r="J79">
@@ -5516,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>72</v>
       </c>
@@ -5533,7 +5636,7 @@
         <v>2</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
+        <f>SUM(G80:J80)-SUM(L80:N80)</f>
         <v>2</v>
       </c>
       <c r="G80">
@@ -5555,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>77</v>
       </c>
@@ -5572,7 +5675,7 @@
         <v>2</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
+        <f>SUM(G81:J81)-SUM(L81:N81)</f>
         <v>2</v>
       </c>
       <c r="G81">
@@ -5591,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>84</v>
       </c>
@@ -5608,7 +5711,7 @@
         <v>2</v>
       </c>
       <c r="F82">
-        <f t="shared" si="1"/>
+        <f>SUM(G82:J82)-SUM(L82:N82)</f>
         <v>1</v>
       </c>
       <c r="J82">
@@ -5621,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>85</v>
       </c>
@@ -5638,7 +5741,7 @@
         <v>2</v>
       </c>
       <c r="F83">
-        <f t="shared" si="1"/>
+        <f>SUM(G83:J83)-SUM(L83:N83)</f>
         <v>1</v>
       </c>
       <c r="I83">
@@ -5654,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>87</v>
       </c>
@@ -5671,7 +5774,7 @@
         <v>2</v>
       </c>
       <c r="F84">
-        <f t="shared" si="1"/>
+        <f>SUM(G84:J84)-SUM(L84:N84)</f>
         <v>1</v>
       </c>
       <c r="J84">
@@ -5684,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>92</v>
       </c>
@@ -5701,7 +5804,7 @@
         <v>2</v>
       </c>
       <c r="F85">
-        <f t="shared" si="1"/>
+        <f>SUM(G85:J85)-SUM(L85:N85)</f>
         <v>1</v>
       </c>
       <c r="J85">
@@ -5714,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>98</v>
       </c>
@@ -5731,7 +5834,7 @@
         <v>2</v>
       </c>
       <c r="F86">
-        <f t="shared" si="1"/>
+        <f>SUM(G86:J86)-SUM(L86:N86)</f>
         <v>1</v>
       </c>
       <c r="H86">
@@ -5753,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>106</v>
       </c>
@@ -5770,7 +5873,7 @@
         <v>2</v>
       </c>
       <c r="F87">
-        <f t="shared" si="1"/>
+        <f>SUM(G87:J87)-SUM(L87:N87)</f>
         <v>1</v>
       </c>
       <c r="H87">
@@ -5786,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>111</v>
       </c>
@@ -5803,7 +5906,7 @@
         <v>2</v>
       </c>
       <c r="F88">
-        <f t="shared" si="1"/>
+        <f>SUM(G88:J88)-SUM(L88:N88)</f>
         <v>1</v>
       </c>
       <c r="H88">
@@ -5819,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>119</v>
       </c>
@@ -5836,7 +5939,7 @@
         <v>2</v>
       </c>
       <c r="F89">
-        <f t="shared" si="1"/>
+        <f>SUM(G89:J89)-SUM(L89:N89)</f>
         <v>1</v>
       </c>
       <c r="H89">
@@ -5855,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>125</v>
       </c>
@@ -5872,7 +5975,7 @@
         <v>2</v>
       </c>
       <c r="F90">
-        <f t="shared" si="1"/>
+        <f>SUM(G90:J90)-SUM(L90:N90)</f>
         <v>1</v>
       </c>
       <c r="J90">
@@ -5885,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>127</v>
       </c>
@@ -5902,7 +6005,7 @@
         <v>2</v>
       </c>
       <c r="F91">
-        <f t="shared" si="1"/>
+        <f>SUM(G91:J91)-SUM(L91:N91)</f>
         <v>1</v>
       </c>
       <c r="J91">
@@ -5918,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>137</v>
       </c>
@@ -5935,7 +6038,7 @@
         <v>2</v>
       </c>
       <c r="F92">
-        <f t="shared" si="1"/>
+        <f>SUM(G92:J92)-SUM(L92:N92)</f>
         <v>1</v>
       </c>
       <c r="J92">
@@ -5948,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>138</v>
       </c>
@@ -5965,7 +6068,7 @@
         <v>2</v>
       </c>
       <c r="F93">
-        <f t="shared" si="1"/>
+        <f>SUM(G93:J93)-SUM(L93:N93)</f>
         <v>2</v>
       </c>
       <c r="G93">
@@ -5987,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>139</v>
       </c>
@@ -6004,7 +6107,7 @@
         <v>2</v>
       </c>
       <c r="F94">
-        <f t="shared" si="1"/>
+        <f>SUM(G94:J94)-SUM(L94:N94)</f>
         <v>1</v>
       </c>
       <c r="J94">
@@ -6017,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>140</v>
       </c>
@@ -6034,7 +6137,7 @@
         <v>2</v>
       </c>
       <c r="F95">
-        <f t="shared" si="1"/>
+        <f>SUM(G95:J95)-SUM(L95:N95)</f>
         <v>2</v>
       </c>
       <c r="H95">
@@ -6053,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>149</v>
       </c>
@@ -6070,7 +6173,7 @@
         <v>2</v>
       </c>
       <c r="F96">
-        <f t="shared" si="1"/>
+        <f>SUM(G96:J96)-SUM(L96:N96)</f>
         <v>2</v>
       </c>
       <c r="H96">
@@ -6086,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>154</v>
       </c>
@@ -6103,7 +6206,7 @@
         <v>2</v>
       </c>
       <c r="F97">
-        <f t="shared" si="1"/>
+        <f>SUM(G97:J97)-SUM(L97:N97)</f>
         <v>1</v>
       </c>
       <c r="H97">
@@ -6116,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>164</v>
       </c>
@@ -6133,7 +6236,7 @@
         <v>2</v>
       </c>
       <c r="F98">
-        <f t="shared" si="1"/>
+        <f>SUM(G98:J98)-SUM(L98:N98)</f>
         <v>2</v>
       </c>
       <c r="H98">
@@ -6152,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>180</v>
       </c>
@@ -6169,7 +6272,7 @@
         <v>2</v>
       </c>
       <c r="F99">
-        <f t="shared" si="1"/>
+        <f>SUM(G99:J99)-SUM(L99:N99)</f>
         <v>1</v>
       </c>
       <c r="H99">
@@ -6185,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>186</v>
       </c>
@@ -6202,7 +6305,7 @@
         <v>2</v>
       </c>
       <c r="F100">
-        <f t="shared" si="1"/>
+        <f>SUM(G100:J100)-SUM(L100:N100)</f>
         <v>1</v>
       </c>
       <c r="G100">
@@ -6224,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>202</v>
       </c>
@@ -6241,7 +6344,7 @@
         <v>2</v>
       </c>
       <c r="F101">
-        <f t="shared" si="1"/>
+        <f>SUM(G101:J101)-SUM(L101:N101)</f>
         <v>1</v>
       </c>
       <c r="H101">
@@ -6257,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>203</v>
       </c>
@@ -6274,7 +6377,7 @@
         <v>2</v>
       </c>
       <c r="F102">
-        <f t="shared" si="1"/>
+        <f>SUM(G102:J102)-SUM(L102:N102)</f>
         <v>1</v>
       </c>
       <c r="H102">
@@ -6293,7 +6396,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>204</v>
       </c>
@@ -6310,7 +6413,7 @@
         <v>2</v>
       </c>
       <c r="F103">
-        <f t="shared" si="1"/>
+        <f>SUM(G103:J103)-SUM(L103:N103)</f>
         <v>1</v>
       </c>
       <c r="J103">
@@ -6323,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>229</v>
       </c>
@@ -6340,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="F104">
-        <f t="shared" si="1"/>
+        <f>SUM(G104:J104)-SUM(L104:N104)</f>
         <v>1</v>
       </c>
       <c r="J104">
@@ -6353,7 +6456,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>234</v>
       </c>
@@ -6370,7 +6473,7 @@
         <v>2</v>
       </c>
       <c r="F105">
-        <f t="shared" si="1"/>
+        <f>SUM(G105:J105)-SUM(L105:N105)</f>
         <v>1</v>
       </c>
       <c r="J105">
@@ -6383,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>240</v>
       </c>
@@ -6400,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="F106">
-        <f t="shared" si="1"/>
+        <f>SUM(G106:J106)-SUM(L106:N106)</f>
         <v>2</v>
       </c>
       <c r="G106">
@@ -6416,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>241</v>
       </c>
@@ -6433,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="F107">
-        <f t="shared" si="1"/>
+        <f>SUM(G107:J107)-SUM(L107:N107)</f>
         <v>1</v>
       </c>
       <c r="H107">
@@ -6449,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>242</v>
       </c>
@@ -6466,7 +6569,7 @@
         <v>2</v>
       </c>
       <c r="F108">
-        <f t="shared" si="1"/>
+        <f>SUM(G108:J108)-SUM(L108:N108)</f>
         <v>1</v>
       </c>
       <c r="H108">
@@ -6479,7 +6582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>243</v>
       </c>
@@ -6496,7 +6599,7 @@
         <v>2</v>
       </c>
       <c r="F109">
-        <f t="shared" si="1"/>
+        <f>SUM(G109:J109)-SUM(L109:N109)</f>
         <v>1</v>
       </c>
       <c r="H109">
@@ -6509,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>262</v>
       </c>
@@ -6526,7 +6629,7 @@
         <v>2</v>
       </c>
       <c r="F110">
-        <f t="shared" si="1"/>
+        <f>SUM(G110:J110)-SUM(L110:N110)</f>
         <v>1</v>
       </c>
       <c r="H110">
@@ -6542,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>269</v>
       </c>
@@ -6559,7 +6662,7 @@
         <v>2</v>
       </c>
       <c r="F111">
-        <f t="shared" si="1"/>
+        <f>SUM(G111:J111)-SUM(L111:N111)</f>
         <v>1</v>
       </c>
       <c r="H111">
@@ -6581,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4</v>
       </c>
@@ -6598,7 +6701,7 @@
         <v>2</v>
       </c>
       <c r="F112">
-        <f t="shared" si="1"/>
+        <f>SUM(G112:J112)-SUM(L112:N112)</f>
         <v>1</v>
       </c>
       <c r="I112">
@@ -6611,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>6</v>
       </c>
@@ -6628,7 +6731,7 @@
         <v>2</v>
       </c>
       <c r="F113">
-        <f t="shared" si="1"/>
+        <f>SUM(G113:J113)-SUM(L113:N113)</f>
         <v>0</v>
       </c>
       <c r="O113">
@@ -6638,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>11</v>
       </c>
@@ -6655,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="F114">
-        <f t="shared" si="1"/>
+        <f>SUM(G114:J114)-SUM(L114:N114)</f>
         <v>0</v>
       </c>
       <c r="H114">
@@ -6671,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>13</v>
       </c>
@@ -6688,7 +6791,7 @@
         <v>2</v>
       </c>
       <c r="F115">
-        <f t="shared" si="1"/>
+        <f>SUM(G115:J115)-SUM(L115:N115)</f>
         <v>1</v>
       </c>
       <c r="G115">
@@ -6710,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>24</v>
       </c>
@@ -6727,14 +6830,14 @@
         <v>2</v>
       </c>
       <c r="F116">
-        <f t="shared" si="1"/>
+        <f>SUM(G116:J116)-SUM(L116:N116)</f>
         <v>0</v>
       </c>
       <c r="V116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>26</v>
       </c>
@@ -6751,7 +6854,7 @@
         <v>2</v>
       </c>
       <c r="F117">
-        <f t="shared" si="1"/>
+        <f>SUM(G117:J117)-SUM(L117:N117)</f>
         <v>0</v>
       </c>
       <c r="O117">
@@ -6761,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>27</v>
       </c>
@@ -6778,7 +6881,7 @@
         <v>2</v>
       </c>
       <c r="F118">
-        <f t="shared" si="1"/>
+        <f>SUM(G118:J118)-SUM(L118:N118)</f>
         <v>0</v>
       </c>
       <c r="H118">
@@ -6797,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>28</v>
       </c>
@@ -6814,7 +6917,7 @@
         <v>2</v>
       </c>
       <c r="F119">
-        <f t="shared" si="1"/>
+        <f>SUM(G119:J119)-SUM(L119:N119)</f>
         <v>0</v>
       </c>
       <c r="H119">
@@ -6830,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>40</v>
       </c>
@@ -6847,7 +6950,7 @@
         <v>2</v>
       </c>
       <c r="F120">
-        <f t="shared" si="1"/>
+        <f>SUM(G120:J120)-SUM(L120:N120)</f>
         <v>1</v>
       </c>
       <c r="H120">
@@ -6869,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>68</v>
       </c>
@@ -6886,7 +6989,7 @@
         <v>2</v>
       </c>
       <c r="F121">
-        <f t="shared" si="1"/>
+        <f>SUM(G121:J121)-SUM(L121:N121)</f>
         <v>0</v>
       </c>
       <c r="O121">
@@ -6899,7 +7002,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>69</v>
       </c>
@@ -6916,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="F122">
-        <f t="shared" si="1"/>
+        <f>SUM(G122:J122)-SUM(L122:N122)</f>
         <v>0</v>
       </c>
       <c r="O122">
@@ -6926,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>70</v>
       </c>
@@ -6943,7 +7046,7 @@
         <v>2</v>
       </c>
       <c r="F123">
-        <f t="shared" si="1"/>
+        <f>SUM(G123:J123)-SUM(L123:N123)</f>
         <v>0</v>
       </c>
       <c r="J123">
@@ -6962,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>74</v>
       </c>
@@ -6979,7 +7082,7 @@
         <v>2</v>
       </c>
       <c r="F124">
-        <f t="shared" si="1"/>
+        <f>SUM(G124:J124)-SUM(L124:N124)</f>
         <v>0</v>
       </c>
       <c r="O124">
@@ -6989,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>78</v>
       </c>
@@ -7006,7 +7109,7 @@
         <v>2</v>
       </c>
       <c r="F125">
-        <f t="shared" si="1"/>
+        <f>SUM(G125:J125)-SUM(L125:N125)</f>
         <v>0</v>
       </c>
       <c r="O125">
@@ -7016,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>82</v>
       </c>
@@ -7033,7 +7136,7 @@
         <v>2</v>
       </c>
       <c r="F126">
-        <f t="shared" si="1"/>
+        <f>SUM(G126:J126)-SUM(L126:N126)</f>
         <v>0</v>
       </c>
       <c r="R126">
@@ -7043,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>86</v>
       </c>
@@ -7060,7 +7163,7 @@
         <v>2</v>
       </c>
       <c r="F127">
-        <f t="shared" si="1"/>
+        <f>SUM(G127:J127)-SUM(L127:N127)</f>
         <v>0</v>
       </c>
       <c r="J127">
@@ -7076,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>89</v>
       </c>
@@ -7093,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="F128">
-        <f t="shared" si="1"/>
+        <f>SUM(G128:J128)-SUM(L128:N128)</f>
         <v>0</v>
       </c>
       <c r="O128">
@@ -7103,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>90</v>
       </c>
@@ -7120,7 +7223,7 @@
         <v>2</v>
       </c>
       <c r="F129">
-        <f t="shared" si="1"/>
+        <f>SUM(G129:J129)-SUM(L129:N129)</f>
         <v>0</v>
       </c>
       <c r="O129">
@@ -7130,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>93</v>
       </c>
@@ -7147,7 +7250,7 @@
         <v>2</v>
       </c>
       <c r="F130">
-        <f t="shared" ref="F130:F193" si="2">SUM(G130:J130)-SUM(L130:N130)</f>
+        <f>SUM(G130:J130)-SUM(L130:N130)</f>
         <v>0</v>
       </c>
       <c r="H130">
@@ -7163,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>97</v>
       </c>
@@ -7180,7 +7283,7 @@
         <v>2</v>
       </c>
       <c r="F131">
-        <f t="shared" si="2"/>
+        <f>SUM(G131:J131)-SUM(L131:N131)</f>
         <v>1</v>
       </c>
       <c r="H131">
@@ -7199,7 +7302,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>100</v>
       </c>
@@ -7216,7 +7319,7 @@
         <v>2</v>
       </c>
       <c r="F132">
-        <f t="shared" si="2"/>
+        <f>SUM(G132:J132)-SUM(L132:N132)</f>
         <v>0</v>
       </c>
       <c r="H132">
@@ -7232,7 +7335,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>102</v>
       </c>
@@ -7249,7 +7352,7 @@
         <v>2</v>
       </c>
       <c r="F133">
-        <f t="shared" si="2"/>
+        <f>SUM(G133:J133)-SUM(L133:N133)</f>
         <v>0</v>
       </c>
       <c r="H133">
@@ -7265,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>103</v>
       </c>
@@ -7282,7 +7385,7 @@
         <v>2</v>
       </c>
       <c r="F134">
-        <f t="shared" si="2"/>
+        <f>SUM(G134:J134)-SUM(L134:N134)</f>
         <v>0</v>
       </c>
       <c r="O134">
@@ -7292,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>105</v>
       </c>
@@ -7309,7 +7412,7 @@
         <v>2</v>
       </c>
       <c r="F135">
-        <f t="shared" si="2"/>
+        <f>SUM(G135:J135)-SUM(L135:N135)</f>
         <v>0</v>
       </c>
       <c r="H135">
@@ -7325,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>107</v>
       </c>
@@ -7342,7 +7445,7 @@
         <v>2</v>
       </c>
       <c r="F136">
-        <f t="shared" si="2"/>
+        <f>SUM(G136:J136)-SUM(L136:N136)</f>
         <v>1</v>
       </c>
       <c r="H136">
@@ -7358,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>110</v>
       </c>
@@ -7375,7 +7478,7 @@
         <v>2</v>
       </c>
       <c r="F137">
-        <f t="shared" si="2"/>
+        <f>SUM(G137:J137)-SUM(L137:N137)</f>
         <v>0</v>
       </c>
       <c r="O137">
@@ -7385,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>118</v>
       </c>
@@ -7402,7 +7505,7 @@
         <v>2</v>
       </c>
       <c r="F138">
-        <f t="shared" si="2"/>
+        <f>SUM(G138:J138)-SUM(L138:N138)</f>
         <v>0</v>
       </c>
       <c r="O138">
@@ -7412,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>120</v>
       </c>
@@ -7429,7 +7532,7 @@
         <v>2</v>
       </c>
       <c r="F139">
-        <f t="shared" si="2"/>
+        <f>SUM(G139:J139)-SUM(L139:N139)</f>
         <v>0</v>
       </c>
       <c r="J139">
@@ -7442,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>128</v>
       </c>
@@ -7459,7 +7562,7 @@
         <v>2</v>
       </c>
       <c r="F140">
-        <f t="shared" si="2"/>
+        <f>SUM(G140:J140)-SUM(L140:N140)</f>
         <v>0</v>
       </c>
       <c r="J140">
@@ -7475,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>130</v>
       </c>
@@ -7492,7 +7595,7 @@
         <v>2</v>
       </c>
       <c r="F141">
-        <f t="shared" si="2"/>
+        <f>SUM(G141:J141)-SUM(L141:N141)</f>
         <v>0</v>
       </c>
       <c r="J141">
@@ -7505,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>131</v>
       </c>
@@ -7522,7 +7625,7 @@
         <v>2</v>
       </c>
       <c r="F142">
-        <f t="shared" si="2"/>
+        <f>SUM(G142:J142)-SUM(L142:N142)</f>
         <v>0</v>
       </c>
       <c r="H142">
@@ -7538,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>132</v>
       </c>
@@ -7555,7 +7658,7 @@
         <v>2</v>
       </c>
       <c r="F143">
-        <f t="shared" si="2"/>
+        <f>SUM(G143:J143)-SUM(L143:N143)</f>
         <v>0</v>
       </c>
       <c r="R143">
@@ -7565,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>133</v>
       </c>
@@ -7582,7 +7685,7 @@
         <v>2</v>
       </c>
       <c r="F144">
-        <f t="shared" si="2"/>
+        <f>SUM(G144:J144)-SUM(L144:N144)</f>
         <v>0</v>
       </c>
       <c r="P144">
@@ -7592,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>141</v>
       </c>
@@ -7609,14 +7712,14 @@
         <v>2</v>
       </c>
       <c r="F145">
-        <f t="shared" si="2"/>
+        <f>SUM(G145:J145)-SUM(L145:N145)</f>
         <v>0</v>
       </c>
       <c r="V145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>143</v>
       </c>
@@ -7633,7 +7736,7 @@
         <v>2</v>
       </c>
       <c r="F146">
-        <f t="shared" si="2"/>
+        <f>SUM(G146:J146)-SUM(L146:N146)</f>
         <v>0</v>
       </c>
       <c r="H146">
@@ -7646,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>147</v>
       </c>
@@ -7663,7 +7766,7 @@
         <v>2</v>
       </c>
       <c r="F147">
-        <f t="shared" si="2"/>
+        <f>SUM(G147:J147)-SUM(L147:N147)</f>
         <v>0</v>
       </c>
       <c r="O147">
@@ -7676,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>148</v>
       </c>
@@ -7693,7 +7796,7 @@
         <v>2</v>
       </c>
       <c r="F148">
-        <f t="shared" si="2"/>
+        <f>SUM(G148:J148)-SUM(L148:N148)</f>
         <v>1</v>
       </c>
       <c r="H148">
@@ -7709,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>153</v>
       </c>
@@ -7726,7 +7829,7 @@
         <v>2</v>
       </c>
       <c r="F149">
-        <f t="shared" si="2"/>
+        <f>SUM(G149:J149)-SUM(L149:N149)</f>
         <v>0</v>
       </c>
       <c r="O149">
@@ -7736,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>166</v>
       </c>
@@ -7753,7 +7856,7 @@
         <v>2</v>
       </c>
       <c r="F150">
-        <f t="shared" si="2"/>
+        <f>SUM(G150:J150)-SUM(L150:N150)</f>
         <v>0</v>
       </c>
       <c r="R150">
@@ -7763,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>168</v>
       </c>
@@ -7780,7 +7883,7 @@
         <v>2</v>
       </c>
       <c r="F151">
-        <f t="shared" si="2"/>
+        <f>SUM(G151:J151)-SUM(L151:N151)</f>
         <v>0</v>
       </c>
       <c r="P151">
@@ -7790,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>171</v>
       </c>
@@ -7807,7 +7910,7 @@
         <v>2</v>
       </c>
       <c r="F152">
-        <f t="shared" si="2"/>
+        <f>SUM(G152:J152)-SUM(L152:N152)</f>
         <v>1</v>
       </c>
       <c r="H152">
@@ -7823,7 +7926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>176</v>
       </c>
@@ -7840,7 +7943,7 @@
         <v>2</v>
       </c>
       <c r="F153">
-        <f t="shared" si="2"/>
+        <f>SUM(G153:J153)-SUM(L153:N153)</f>
         <v>0</v>
       </c>
       <c r="O153">
@@ -7850,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>177</v>
       </c>
@@ -7867,7 +7970,7 @@
         <v>2</v>
       </c>
       <c r="F154">
-        <f t="shared" si="2"/>
+        <f>SUM(G154:J154)-SUM(L154:N154)</f>
         <v>0</v>
       </c>
       <c r="O154">
@@ -7877,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>184</v>
       </c>
@@ -7894,7 +7997,7 @@
         <v>2</v>
       </c>
       <c r="F155">
-        <f t="shared" si="2"/>
+        <f>SUM(G155:J155)-SUM(L155:N155)</f>
         <v>0</v>
       </c>
       <c r="O155">
@@ -7904,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>188</v>
       </c>
@@ -7921,7 +8024,7 @@
         <v>2</v>
       </c>
       <c r="F156">
-        <f t="shared" si="2"/>
+        <f>SUM(G156:J156)-SUM(L156:N156)</f>
         <v>1</v>
       </c>
       <c r="G156">
@@ -7943,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>189</v>
       </c>
@@ -7960,7 +8063,7 @@
         <v>2</v>
       </c>
       <c r="F157">
-        <f t="shared" si="2"/>
+        <f>SUM(G157:J157)-SUM(L157:N157)</f>
         <v>0</v>
       </c>
       <c r="H157">
@@ -7973,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>191</v>
       </c>
@@ -7990,7 +8093,7 @@
         <v>2</v>
       </c>
       <c r="F158">
-        <f t="shared" si="2"/>
+        <f>SUM(G158:J158)-SUM(L158:N158)</f>
         <v>0</v>
       </c>
       <c r="R158">
@@ -8000,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>196</v>
       </c>
@@ -8017,7 +8120,7 @@
         <v>2</v>
       </c>
       <c r="F159">
-        <f t="shared" si="2"/>
+        <f>SUM(G159:J159)-SUM(L159:N159)</f>
         <v>0</v>
       </c>
       <c r="H159">
@@ -8033,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>197</v>
       </c>
@@ -8050,7 +8153,7 @@
         <v>2</v>
       </c>
       <c r="F160">
-        <f t="shared" si="2"/>
+        <f>SUM(G160:J160)-SUM(L160:N160)</f>
         <v>0</v>
       </c>
       <c r="O160">
@@ -8060,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>198</v>
       </c>
@@ -8077,7 +8180,7 @@
         <v>2</v>
       </c>
       <c r="F161">
-        <f t="shared" si="2"/>
+        <f>SUM(G161:J161)-SUM(L161:N161)</f>
         <v>0</v>
       </c>
       <c r="H161">
@@ -8093,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>199</v>
       </c>
@@ -8110,7 +8213,7 @@
         <v>2</v>
       </c>
       <c r="F162">
-        <f t="shared" si="2"/>
+        <f>SUM(G162:J162)-SUM(L162:N162)</f>
         <v>0</v>
       </c>
       <c r="O162">
@@ -8120,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>205</v>
       </c>
@@ -8137,7 +8240,7 @@
         <v>2</v>
       </c>
       <c r="F163">
-        <f t="shared" si="2"/>
+        <f>SUM(G163:J163)-SUM(L163:N163)</f>
         <v>0</v>
       </c>
       <c r="H163">
@@ -8150,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>209</v>
       </c>
@@ -8167,7 +8270,7 @@
         <v>2</v>
       </c>
       <c r="F164">
-        <f t="shared" si="2"/>
+        <f>SUM(G164:J164)-SUM(L164:N164)</f>
         <v>1</v>
       </c>
       <c r="H164">
@@ -8183,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>212</v>
       </c>
@@ -8200,7 +8303,7 @@
         <v>2</v>
       </c>
       <c r="F165">
-        <f t="shared" si="2"/>
+        <f>SUM(G165:J165)-SUM(L165:N165)</f>
         <v>1</v>
       </c>
       <c r="H165">
@@ -8216,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>216</v>
       </c>
@@ -8233,7 +8336,7 @@
         <v>2</v>
       </c>
       <c r="F166">
-        <f t="shared" si="2"/>
+        <f>SUM(G166:J166)-SUM(L166:N166)</f>
         <v>0</v>
       </c>
       <c r="J166">
@@ -8246,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>217</v>
       </c>
@@ -8263,14 +8366,14 @@
         <v>2</v>
       </c>
       <c r="F167">
-        <f t="shared" si="2"/>
+        <f>SUM(G167:J167)-SUM(L167:N167)</f>
         <v>0</v>
       </c>
       <c r="V167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>218</v>
       </c>
@@ -8287,7 +8390,7 @@
         <v>2</v>
       </c>
       <c r="F168">
-        <f t="shared" si="2"/>
+        <f>SUM(G168:J168)-SUM(L168:N168)</f>
         <v>0</v>
       </c>
       <c r="R168">
@@ -8297,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>220</v>
       </c>
@@ -8314,7 +8417,7 @@
         <v>2</v>
       </c>
       <c r="F169">
-        <f t="shared" si="2"/>
+        <f>SUM(G169:J169)-SUM(L169:N169)</f>
         <v>0</v>
       </c>
       <c r="O169">
@@ -8327,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>223</v>
       </c>
@@ -8344,7 +8447,7 @@
         <v>2</v>
       </c>
       <c r="F170">
-        <f t="shared" si="2"/>
+        <f>SUM(G170:J170)-SUM(L170:N170)</f>
         <v>0</v>
       </c>
       <c r="H170">
@@ -8360,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>232</v>
       </c>
@@ -8377,7 +8480,7 @@
         <v>2</v>
       </c>
       <c r="F171">
-        <f t="shared" si="2"/>
+        <f>SUM(G171:J171)-SUM(L171:N171)</f>
         <v>0</v>
       </c>
       <c r="H171">
@@ -8390,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>235</v>
       </c>
@@ -8407,7 +8510,7 @@
         <v>2</v>
       </c>
       <c r="F172">
-        <f t="shared" si="2"/>
+        <f>SUM(G172:J172)-SUM(L172:N172)</f>
         <v>0</v>
       </c>
       <c r="S172">
@@ -8417,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>236</v>
       </c>
@@ -8434,7 +8537,7 @@
         <v>2</v>
       </c>
       <c r="F173">
-        <f t="shared" si="2"/>
+        <f>SUM(G173:J173)-SUM(L173:N173)</f>
         <v>0</v>
       </c>
       <c r="J173">
@@ -8447,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>239</v>
       </c>
@@ -8464,7 +8567,7 @@
         <v>2</v>
       </c>
       <c r="F174">
-        <f t="shared" si="2"/>
+        <f>SUM(G174:J174)-SUM(L174:N174)</f>
         <v>0</v>
       </c>
       <c r="H174">
@@ -8480,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>247</v>
       </c>
@@ -8497,7 +8600,7 @@
         <v>2</v>
       </c>
       <c r="F175">
-        <f t="shared" si="2"/>
+        <f>SUM(G175:J175)-SUM(L175:N175)</f>
         <v>0</v>
       </c>
       <c r="O175">
@@ -8510,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>248</v>
       </c>
@@ -8527,14 +8630,14 @@
         <v>2</v>
       </c>
       <c r="F176">
-        <f t="shared" si="2"/>
+        <f>SUM(G176:J176)-SUM(L176:N176)</f>
         <v>0</v>
       </c>
       <c r="V176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>251</v>
       </c>
@@ -8551,7 +8654,7 @@
         <v>2</v>
       </c>
       <c r="F177">
-        <f t="shared" si="2"/>
+        <f>SUM(G177:J177)-SUM(L177:N177)</f>
         <v>0</v>
       </c>
       <c r="H177">
@@ -8564,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>259</v>
       </c>
@@ -8581,7 +8684,7 @@
         <v>2</v>
       </c>
       <c r="F178">
-        <f t="shared" si="2"/>
+        <f>SUM(G178:J178)-SUM(L178:N178)</f>
         <v>0</v>
       </c>
       <c r="G178">
@@ -8594,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>260</v>
       </c>
@@ -8611,7 +8714,7 @@
         <v>2</v>
       </c>
       <c r="F179">
-        <f t="shared" si="2"/>
+        <f>SUM(G179:J179)-SUM(L179:N179)</f>
         <v>0</v>
       </c>
       <c r="H179">
@@ -8627,7 +8730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>261</v>
       </c>
@@ -8644,7 +8747,7 @@
         <v>2</v>
       </c>
       <c r="F180">
-        <f t="shared" si="2"/>
+        <f>SUM(G180:J180)-SUM(L180:N180)</f>
         <v>0</v>
       </c>
       <c r="O180">
@@ -8654,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>265</v>
       </c>
@@ -8671,7 +8774,7 @@
         <v>2</v>
       </c>
       <c r="F181">
-        <f t="shared" si="2"/>
+        <f>SUM(G181:J181)-SUM(L181:N181)</f>
         <v>0</v>
       </c>
       <c r="H181">
@@ -8684,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>266</v>
       </c>
@@ -8701,7 +8804,7 @@
         <v>2</v>
       </c>
       <c r="F182">
-        <f t="shared" si="2"/>
+        <f>SUM(G182:J182)-SUM(L182:N182)</f>
         <v>0</v>
       </c>
       <c r="O182">
@@ -8711,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>271</v>
       </c>
@@ -8728,7 +8831,7 @@
         <v>2</v>
       </c>
       <c r="F183">
-        <f t="shared" si="2"/>
+        <f>SUM(G183:J183)-SUM(L183:N183)</f>
         <v>0</v>
       </c>
       <c r="O183">
@@ -8738,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>274</v>
       </c>
@@ -8755,7 +8858,7 @@
         <v>2</v>
       </c>
       <c r="F184">
-        <f t="shared" si="2"/>
+        <f>SUM(G184:J184)-SUM(L184:N184)</f>
         <v>0</v>
       </c>
       <c r="O184">
@@ -8765,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>9</v>
       </c>
@@ -8782,14 +8885,14 @@
         <v>2</v>
       </c>
       <c r="F185">
-        <f t="shared" si="2"/>
+        <f>SUM(G185:J185)-SUM(L185:N185)</f>
         <v>0</v>
       </c>
       <c r="V185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>37</v>
       </c>
@@ -8806,14 +8909,14 @@
         <v>2</v>
       </c>
       <c r="F186">
-        <f t="shared" si="2"/>
+        <f>SUM(G186:J186)-SUM(L186:N186)</f>
         <v>0</v>
       </c>
       <c r="V186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>48</v>
       </c>
@@ -8830,14 +8933,14 @@
         <v>2</v>
       </c>
       <c r="F187">
-        <f t="shared" si="2"/>
+        <f>SUM(G187:J187)-SUM(L187:N187)</f>
         <v>0</v>
       </c>
       <c r="V187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>63</v>
       </c>
@@ -8854,14 +8957,14 @@
         <v>2</v>
       </c>
       <c r="F188">
-        <f t="shared" si="2"/>
+        <f>SUM(G188:J188)-SUM(L188:N188)</f>
         <v>0</v>
       </c>
       <c r="V188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>71</v>
       </c>
@@ -8878,7 +8981,7 @@
         <v>2</v>
       </c>
       <c r="F189">
-        <f t="shared" si="2"/>
+        <f>SUM(G189:J189)-SUM(L189:N189)</f>
         <v>0</v>
       </c>
       <c r="H189">
@@ -8891,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>104</v>
       </c>
@@ -8908,14 +9011,14 @@
         <v>2</v>
       </c>
       <c r="F190">
-        <f t="shared" si="2"/>
+        <f>SUM(G190:J190)-SUM(L190:N190)</f>
         <v>0</v>
       </c>
       <c r="V190">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>116</v>
       </c>
@@ -8932,14 +9035,14 @@
         <v>2</v>
       </c>
       <c r="F191">
-        <f t="shared" si="2"/>
+        <f>SUM(G191:J191)-SUM(L191:N191)</f>
         <v>0</v>
       </c>
       <c r="V191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>124</v>
       </c>
@@ -8956,14 +9059,14 @@
         <v>2</v>
       </c>
       <c r="F192">
-        <f t="shared" si="2"/>
+        <f>SUM(G192:J192)-SUM(L192:N192)</f>
         <v>0</v>
       </c>
       <c r="V192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>152</v>
       </c>
@@ -8980,14 +9083,14 @@
         <v>2</v>
       </c>
       <c r="F193">
-        <f t="shared" si="2"/>
+        <f>SUM(G193:J193)-SUM(L193:N193)</f>
         <v>0</v>
       </c>
       <c r="V193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>161</v>
       </c>
@@ -9004,14 +9107,14 @@
         <v>2</v>
       </c>
       <c r="F194">
-        <f t="shared" ref="F194:F257" si="3">SUM(G194:J194)-SUM(L194:N194)</f>
+        <f>SUM(G194:J194)-SUM(L194:N194)</f>
         <v>0</v>
       </c>
       <c r="V194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>163</v>
       </c>
@@ -9028,14 +9131,14 @@
         <v>2</v>
       </c>
       <c r="F195">
-        <f t="shared" si="3"/>
+        <f>SUM(G195:J195)-SUM(L195:N195)</f>
         <v>0</v>
       </c>
       <c r="V195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>167</v>
       </c>
@@ -9052,7 +9155,7 @@
         <v>2</v>
       </c>
       <c r="F196">
-        <f t="shared" si="3"/>
+        <f>SUM(G196:J196)-SUM(L196:N196)</f>
         <v>0</v>
       </c>
       <c r="U196" t="s">
@@ -9062,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>172</v>
       </c>
@@ -9079,14 +9182,14 @@
         <v>2</v>
       </c>
       <c r="F197">
-        <f t="shared" si="3"/>
+        <f>SUM(G197:J197)-SUM(L197:N197)</f>
         <v>0</v>
       </c>
       <c r="V197">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>175</v>
       </c>
@@ -9103,14 +9206,14 @@
         <v>2</v>
       </c>
       <c r="F198">
-        <f t="shared" si="3"/>
+        <f>SUM(G198:J198)-SUM(L198:N198)</f>
         <v>0</v>
       </c>
       <c r="V198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>181</v>
       </c>
@@ -9127,14 +9230,14 @@
         <v>2</v>
       </c>
       <c r="F199">
-        <f t="shared" si="3"/>
+        <f>SUM(G199:J199)-SUM(L199:N199)</f>
         <v>0</v>
       </c>
       <c r="V199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>200</v>
       </c>
@@ -9151,14 +9254,14 @@
         <v>2</v>
       </c>
       <c r="F200">
-        <f t="shared" si="3"/>
+        <f>SUM(G200:J200)-SUM(L200:N200)</f>
         <v>0</v>
       </c>
       <c r="V200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>206</v>
       </c>
@@ -9175,14 +9278,14 @@
         <v>2</v>
       </c>
       <c r="F201">
-        <f t="shared" si="3"/>
+        <f>SUM(G201:J201)-SUM(L201:N201)</f>
         <v>0</v>
       </c>
       <c r="V201">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>210</v>
       </c>
@@ -9199,14 +9302,14 @@
         <v>2</v>
       </c>
       <c r="F202">
-        <f t="shared" si="3"/>
+        <f>SUM(G202:J202)-SUM(L202:N202)</f>
         <v>0</v>
       </c>
       <c r="V202">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>224</v>
       </c>
@@ -9223,14 +9326,14 @@
         <v>2</v>
       </c>
       <c r="F203">
-        <f t="shared" si="3"/>
+        <f>SUM(G203:J203)-SUM(L203:N203)</f>
         <v>0</v>
       </c>
       <c r="V203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>230</v>
       </c>
@@ -9247,14 +9350,14 @@
         <v>2</v>
       </c>
       <c r="F204">
-        <f t="shared" si="3"/>
+        <f>SUM(G204:J204)-SUM(L204:N204)</f>
         <v>0</v>
       </c>
       <c r="V204">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>282</v>
       </c>
@@ -9271,14 +9374,14 @@
         <v>2</v>
       </c>
       <c r="F205">
-        <f t="shared" si="3"/>
+        <f>SUM(G205:J205)-SUM(L205:N205)</f>
         <v>0</v>
       </c>
       <c r="V205">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2</v>
       </c>
@@ -9295,7 +9398,7 @@
         <v>2</v>
       </c>
       <c r="F206">
-        <f t="shared" si="3"/>
+        <f>SUM(G206:J206)-SUM(L206:N206)</f>
         <v>0</v>
       </c>
       <c r="H206">
@@ -9311,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>22</v>
       </c>
@@ -9328,7 +9431,7 @@
         <v>2</v>
       </c>
       <c r="F207">
-        <f t="shared" si="3"/>
+        <f>SUM(G207:J207)-SUM(L207:N207)</f>
         <v>-1</v>
       </c>
       <c r="N207">
@@ -9341,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>50</v>
       </c>
@@ -9358,7 +9461,7 @@
         <v>2</v>
       </c>
       <c r="F208">
-        <f t="shared" si="3"/>
+        <f>SUM(G208:J208)-SUM(L208:N208)</f>
         <v>0</v>
       </c>
       <c r="H208">
@@ -9377,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>53</v>
       </c>
@@ -9394,7 +9497,7 @@
         <v>2</v>
       </c>
       <c r="F209">
-        <f t="shared" si="3"/>
+        <f>SUM(G209:J209)-SUM(L209:N209)</f>
         <v>-1</v>
       </c>
       <c r="H209">
@@ -9410,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>54</v>
       </c>
@@ -9427,7 +9530,7 @@
         <v>2</v>
       </c>
       <c r="F210">
-        <f t="shared" si="3"/>
+        <f>SUM(G210:J210)-SUM(L210:N210)</f>
         <v>0</v>
       </c>
       <c r="H210">
@@ -9443,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>55</v>
       </c>
@@ -9460,7 +9563,7 @@
         <v>2</v>
       </c>
       <c r="F211">
-        <f t="shared" si="3"/>
+        <f>SUM(G211:J211)-SUM(L211:N211)</f>
         <v>0</v>
       </c>
       <c r="J211">
@@ -9479,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>56</v>
       </c>
@@ -9496,7 +9599,7 @@
         <v>2</v>
       </c>
       <c r="F212">
-        <f t="shared" si="3"/>
+        <f>SUM(G212:J212)-SUM(L212:N212)</f>
         <v>0</v>
       </c>
       <c r="H212">
@@ -9515,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>64</v>
       </c>
@@ -9532,7 +9635,7 @@
         <v>2</v>
       </c>
       <c r="F213">
-        <f t="shared" si="3"/>
+        <f>SUM(G213:J213)-SUM(L213:N213)</f>
         <v>-1</v>
       </c>
       <c r="H213">
@@ -9551,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>80</v>
       </c>
@@ -9568,7 +9671,7 @@
         <v>2</v>
       </c>
       <c r="F214">
-        <f t="shared" si="3"/>
+        <f>SUM(G214:J214)-SUM(L214:N214)</f>
         <v>-1</v>
       </c>
       <c r="N214">
@@ -9581,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>88</v>
       </c>
@@ -9598,7 +9701,7 @@
         <v>2</v>
       </c>
       <c r="F215">
-        <f t="shared" si="3"/>
+        <f>SUM(G215:J215)-SUM(L215:N215)</f>
         <v>-1</v>
       </c>
       <c r="N215">
@@ -9611,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>108</v>
       </c>
@@ -9628,7 +9731,7 @@
         <v>2</v>
       </c>
       <c r="F216">
-        <f t="shared" si="3"/>
+        <f>SUM(G216:J216)-SUM(L216:N216)</f>
         <v>0</v>
       </c>
       <c r="H216">
@@ -9644,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>112</v>
       </c>
@@ -9661,7 +9764,7 @@
         <v>2</v>
       </c>
       <c r="F217">
-        <f t="shared" si="3"/>
+        <f>SUM(G217:J217)-SUM(L217:N217)</f>
         <v>0</v>
       </c>
       <c r="H217">
@@ -9680,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>123</v>
       </c>
@@ -9697,7 +9800,7 @@
         <v>2</v>
       </c>
       <c r="F218">
-        <f t="shared" si="3"/>
+        <f>SUM(G218:J218)-SUM(L218:N218)</f>
         <v>0</v>
       </c>
       <c r="H218">
@@ -9716,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>134</v>
       </c>
@@ -9733,7 +9836,7 @@
         <v>2</v>
       </c>
       <c r="F219">
-        <f t="shared" si="3"/>
+        <f>SUM(G219:J219)-SUM(L219:N219)</f>
         <v>0</v>
       </c>
       <c r="H219">
@@ -9752,7 +9855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>146</v>
       </c>
@@ -9769,7 +9872,7 @@
         <v>2</v>
       </c>
       <c r="F220">
-        <f t="shared" si="3"/>
+        <f>SUM(G220:J220)-SUM(L220:N220)</f>
         <v>0</v>
       </c>
       <c r="H220">
@@ -9788,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>150</v>
       </c>
@@ -9805,7 +9908,7 @@
         <v>2</v>
       </c>
       <c r="F221">
-        <f t="shared" si="3"/>
+        <f>SUM(G221:J221)-SUM(L221:N221)</f>
         <v>-1</v>
       </c>
       <c r="N221">
@@ -9818,7 +9921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>157</v>
       </c>
@@ -9835,7 +9938,7 @@
         <v>2</v>
       </c>
       <c r="F222">
-        <f t="shared" si="3"/>
+        <f>SUM(G222:J222)-SUM(L222:N222)</f>
         <v>-1</v>
       </c>
       <c r="L222">
@@ -9845,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>158</v>
       </c>
@@ -9862,7 +9965,7 @@
         <v>2</v>
       </c>
       <c r="F223">
-        <f t="shared" si="3"/>
+        <f>SUM(G223:J223)-SUM(L223:N223)</f>
         <v>-1</v>
       </c>
       <c r="N223">
@@ -9872,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>169</v>
       </c>
@@ -9889,7 +9992,7 @@
         <v>2</v>
       </c>
       <c r="F224">
-        <f t="shared" si="3"/>
+        <f>SUM(G224:J224)-SUM(L224:N224)</f>
         <v>-1</v>
       </c>
       <c r="N224">
@@ -9902,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>173</v>
       </c>
@@ -9919,7 +10022,7 @@
         <v>2</v>
       </c>
       <c r="F225">
-        <f t="shared" si="3"/>
+        <f>SUM(G225:J225)-SUM(L225:N225)</f>
         <v>-1</v>
       </c>
       <c r="N225">
@@ -9929,7 +10032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>174</v>
       </c>
@@ -9946,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="F226">
-        <f t="shared" si="3"/>
+        <f>SUM(G226:J226)-SUM(L226:N226)</f>
         <v>0</v>
       </c>
       <c r="H226">
@@ -9965,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>192</v>
       </c>
@@ -9982,7 +10085,7 @@
         <v>2</v>
       </c>
       <c r="F227">
-        <f t="shared" si="3"/>
+        <f>SUM(G227:J227)-SUM(L227:N227)</f>
         <v>0</v>
       </c>
       <c r="H227">
@@ -10001,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>195</v>
       </c>
@@ -10018,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="F228">
-        <f t="shared" si="3"/>
+        <f>SUM(G228:J228)-SUM(L228:N228)</f>
         <v>-1</v>
       </c>
       <c r="N228">
@@ -10031,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>222</v>
       </c>
@@ -10048,7 +10151,7 @@
         <v>2</v>
       </c>
       <c r="F229">
-        <f t="shared" si="3"/>
+        <f>SUM(G229:J229)-SUM(L229:N229)</f>
         <v>-1</v>
       </c>
       <c r="H229">
@@ -10067,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>233</v>
       </c>
@@ -10084,7 +10187,7 @@
         <v>2</v>
       </c>
       <c r="F230">
-        <f t="shared" si="3"/>
+        <f>SUM(G230:J230)-SUM(L230:N230)</f>
         <v>0</v>
       </c>
       <c r="H230">
@@ -10103,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>246</v>
       </c>
@@ -10120,7 +10223,7 @@
         <v>2</v>
       </c>
       <c r="F231">
-        <f t="shared" si="3"/>
+        <f>SUM(G231:J231)-SUM(L231:N231)</f>
         <v>0</v>
       </c>
       <c r="H231">
@@ -10139,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>252</v>
       </c>
@@ -10156,7 +10259,7 @@
         <v>2</v>
       </c>
       <c r="F232">
-        <f t="shared" si="3"/>
+        <f>SUM(G232:J232)-SUM(L232:N232)</f>
         <v>-1</v>
       </c>
       <c r="N232">
@@ -10166,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>272</v>
       </c>
@@ -10183,7 +10286,7 @@
         <v>2</v>
       </c>
       <c r="F233">
-        <f t="shared" si="3"/>
+        <f>SUM(G233:J233)-SUM(L233:N233)</f>
         <v>0</v>
       </c>
       <c r="G233">
@@ -10205,7 +10308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>281</v>
       </c>
@@ -10222,7 +10325,7 @@
         <v>2</v>
       </c>
       <c r="F234">
-        <f t="shared" si="3"/>
+        <f>SUM(G234:J234)-SUM(L234:N234)</f>
         <v>-1</v>
       </c>
       <c r="H234">
@@ -10238,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>3</v>
       </c>
@@ -10255,7 +10358,7 @@
         <v>2</v>
       </c>
       <c r="F235">
-        <f t="shared" si="3"/>
+        <f>SUM(G235:J235)-SUM(L235:N235)</f>
         <v>-1</v>
       </c>
       <c r="K235">
@@ -10268,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>35</v>
       </c>
@@ -10285,7 +10388,7 @@
         <v>2</v>
       </c>
       <c r="F236">
-        <f t="shared" si="3"/>
+        <f>SUM(G236:J236)-SUM(L236:N236)</f>
         <v>-1</v>
       </c>
       <c r="K236">
@@ -10301,7 +10404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>59</v>
       </c>
@@ -10318,7 +10421,7 @@
         <v>2</v>
       </c>
       <c r="F237">
-        <f t="shared" si="3"/>
+        <f>SUM(G237:J237)-SUM(L237:N237)</f>
         <v>-1</v>
       </c>
       <c r="H237">
@@ -10340,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>126</v>
       </c>
@@ -10357,7 +10460,7 @@
         <v>2</v>
       </c>
       <c r="F238">
-        <f t="shared" si="3"/>
+        <f>SUM(G238:J238)-SUM(L238:N238)</f>
         <v>-1</v>
       </c>
       <c r="K238">
@@ -10370,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>15</v>
       </c>
@@ -10387,7 +10490,7 @@
         <v>2</v>
       </c>
       <c r="F239">
-        <f t="shared" si="3"/>
+        <f>SUM(G239:J239)-SUM(L239:N239)</f>
         <v>-2</v>
       </c>
       <c r="K239">
@@ -10406,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>38</v>
       </c>
@@ -10423,7 +10526,7 @@
         <v>2</v>
       </c>
       <c r="F240">
-        <f t="shared" si="3"/>
+        <f>SUM(G240:J240)-SUM(L240:N240)</f>
         <v>-2</v>
       </c>
       <c r="K240">
@@ -10442,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>214</v>
       </c>
@@ -10459,7 +10562,7 @@
         <v>2</v>
       </c>
       <c r="F241">
-        <f t="shared" si="3"/>
+        <f>SUM(G241:J241)-SUM(L241:N241)</f>
         <v>2</v>
       </c>
       <c r="H241">
@@ -10472,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>226</v>
       </c>
@@ -10489,7 +10592,7 @@
         <v>2</v>
       </c>
       <c r="F242">
-        <f t="shared" si="3"/>
+        <f>SUM(G242:J242)-SUM(L242:N242)</f>
         <v>3</v>
       </c>
       <c r="G242">
@@ -10508,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>238</v>
       </c>
@@ -10525,7 +10628,7 @@
         <v>2</v>
       </c>
       <c r="F243">
-        <f t="shared" si="3"/>
+        <f>SUM(G243:J243)-SUM(L243:N243)</f>
         <v>2</v>
       </c>
       <c r="I243">
@@ -10541,7 +10644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>277</v>
       </c>
@@ -10558,7 +10661,7 @@
         <v>2</v>
       </c>
       <c r="F244">
-        <f t="shared" si="3"/>
+        <f>SUM(G244:J244)-SUM(L244:N244)</f>
         <v>2</v>
       </c>
       <c r="H244">
@@ -10571,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>156</v>
       </c>
@@ -10588,7 +10691,7 @@
         <v>2</v>
       </c>
       <c r="F245">
-        <f t="shared" si="3"/>
+        <f>SUM(G245:J245)-SUM(L245:N245)</f>
         <v>1</v>
       </c>
       <c r="H245">
@@ -10598,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>179</v>
       </c>
@@ -10615,7 +10718,7 @@
         <v>2</v>
       </c>
       <c r="F246">
-        <f t="shared" si="3"/>
+        <f>SUM(G246:J246)-SUM(L246:N246)</f>
         <v>1</v>
       </c>
       <c r="G246">
@@ -10634,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>183</v>
       </c>
@@ -10651,7 +10754,7 @@
         <v>2</v>
       </c>
       <c r="F247">
-        <f t="shared" si="3"/>
+        <f>SUM(G247:J247)-SUM(L247:N247)</f>
         <v>2</v>
       </c>
       <c r="G247">
@@ -10679,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>253</v>
       </c>
@@ -10696,7 +10799,7 @@
         <v>2</v>
       </c>
       <c r="F248">
-        <f t="shared" si="3"/>
+        <f>SUM(G248:J248)-SUM(L248:N248)</f>
         <v>1</v>
       </c>
       <c r="I248">
@@ -10712,7 +10815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>258</v>
       </c>
@@ -10729,7 +10832,7 @@
         <v>2</v>
       </c>
       <c r="F249">
-        <f t="shared" si="3"/>
+        <f>SUM(G249:J249)-SUM(L249:N249)</f>
         <v>1</v>
       </c>
       <c r="I249">
@@ -10739,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>278</v>
       </c>
@@ -10756,7 +10859,7 @@
         <v>2</v>
       </c>
       <c r="F250">
-        <f t="shared" si="3"/>
+        <f>SUM(G250:J250)-SUM(L250:N250)</f>
         <v>1</v>
       </c>
       <c r="J250">
@@ -10772,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>30</v>
       </c>
@@ -10789,7 +10892,7 @@
         <v>2</v>
       </c>
       <c r="F251">
-        <f t="shared" si="3"/>
+        <f>SUM(G251:J251)-SUM(L251:N251)</f>
         <v>0</v>
       </c>
       <c r="H251">
@@ -10805,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>57</v>
       </c>
@@ -10822,7 +10925,7 @@
         <v>2</v>
       </c>
       <c r="F252">
-        <f t="shared" si="3"/>
+        <f>SUM(G252:J252)-SUM(L252:N252)</f>
         <v>0</v>
       </c>
       <c r="O252">
@@ -10835,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>75</v>
       </c>
@@ -10852,7 +10955,7 @@
         <v>2</v>
       </c>
       <c r="F253">
-        <f t="shared" si="3"/>
+        <f>SUM(G253:J253)-SUM(L253:N253)</f>
         <v>0</v>
       </c>
       <c r="O253">
@@ -10862,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>122</v>
       </c>
@@ -10879,7 +10982,7 @@
         <v>2</v>
       </c>
       <c r="F254">
-        <f t="shared" si="3"/>
+        <f>SUM(G254:J254)-SUM(L254:N254)</f>
         <v>0</v>
       </c>
       <c r="R254">
@@ -10889,7 +10992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>187</v>
       </c>
@@ -10906,7 +11009,7 @@
         <v>2</v>
       </c>
       <c r="F255">
-        <f t="shared" si="3"/>
+        <f>SUM(G255:J255)-SUM(L255:N255)</f>
         <v>0</v>
       </c>
       <c r="H255">
@@ -10922,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>231</v>
       </c>
@@ -10939,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="F256">
-        <f t="shared" si="3"/>
+        <f>SUM(G256:J256)-SUM(L256:N256)</f>
         <v>0</v>
       </c>
       <c r="J256">
@@ -10952,7 +11055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>249</v>
       </c>
@@ -10969,7 +11072,7 @@
         <v>2</v>
       </c>
       <c r="F257">
-        <f t="shared" si="3"/>
+        <f>SUM(G257:J257)-SUM(L257:N257)</f>
         <v>0</v>
       </c>
       <c r="J257">
@@ -10985,7 +11088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>256</v>
       </c>
@@ -11002,7 +11105,7 @@
         <v>2</v>
       </c>
       <c r="F258">
-        <f t="shared" ref="F258:F321" si="4">SUM(G258:J258)-SUM(L258:N258)</f>
+        <f>SUM(G258:J258)-SUM(L258:N258)</f>
         <v>0</v>
       </c>
       <c r="H258">
@@ -11015,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>162</v>
       </c>
@@ -11032,14 +11135,14 @@
         <v>2</v>
       </c>
       <c r="F259">
-        <f t="shared" si="4"/>
+        <f>SUM(G259:J259)-SUM(L259:N259)</f>
         <v>0</v>
       </c>
       <c r="V259">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>25</v>
       </c>
@@ -11056,7 +11159,7 @@
         <v>2</v>
       </c>
       <c r="F260">
-        <f t="shared" si="4"/>
+        <f>SUM(G260:J260)-SUM(L260:N260)</f>
         <v>0</v>
       </c>
       <c r="H260">
@@ -11072,7 +11175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>41</v>
       </c>
@@ -11089,7 +11192,7 @@
         <v>2</v>
       </c>
       <c r="F261">
-        <f t="shared" si="4"/>
+        <f>SUM(G261:J261)-SUM(L261:N261)</f>
         <v>0</v>
       </c>
       <c r="H261">
@@ -11108,7 +11211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>45</v>
       </c>
@@ -11125,7 +11228,7 @@
         <v>2</v>
       </c>
       <c r="F262">
-        <f t="shared" si="4"/>
+        <f>SUM(G262:J262)-SUM(L262:N262)</f>
         <v>0</v>
       </c>
       <c r="H262">
@@ -11144,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>49</v>
       </c>
@@ -11161,7 +11264,7 @@
         <v>2</v>
       </c>
       <c r="F263">
-        <f t="shared" si="4"/>
+        <f>SUM(G263:J263)-SUM(L263:N263)</f>
         <v>0</v>
       </c>
       <c r="H263">
@@ -11180,7 +11283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>65</v>
       </c>
@@ -11197,7 +11300,7 @@
         <v>2</v>
       </c>
       <c r="F264">
-        <f t="shared" si="4"/>
+        <f>SUM(G264:J264)-SUM(L264:N264)</f>
         <v>0</v>
       </c>
       <c r="H264">
@@ -11216,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>201</v>
       </c>
@@ -11233,7 +11336,7 @@
         <v>2</v>
       </c>
       <c r="F265">
-        <f t="shared" si="4"/>
+        <f>SUM(G265:J265)-SUM(L265:N265)</f>
         <v>-1</v>
       </c>
       <c r="N265">
@@ -11246,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>213</v>
       </c>
@@ -11263,7 +11366,7 @@
         <v>2</v>
       </c>
       <c r="F266">
-        <f t="shared" si="4"/>
+        <f>SUM(G266:J266)-SUM(L266:N266)</f>
         <v>0</v>
       </c>
       <c r="K266">
@@ -11273,7 +11376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>135</v>
       </c>
@@ -11290,7 +11393,7 @@
         <v>2</v>
       </c>
       <c r="F267">
-        <f t="shared" si="4"/>
+        <f>SUM(G267:J267)-SUM(L267:N267)</f>
         <v>-1</v>
       </c>
       <c r="K267">
@@ -11306,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>42</v>
       </c>
@@ -11323,7 +11426,7 @@
         <v>1</v>
       </c>
       <c r="F268">
-        <f t="shared" si="4"/>
+        <f>SUM(G268:J268)-SUM(L268:N268)</f>
         <v>4</v>
       </c>
       <c r="G268">
@@ -11345,7 +11448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>5</v>
       </c>
@@ -11362,14 +11465,14 @@
         <v>1</v>
       </c>
       <c r="F269">
-        <f t="shared" si="4"/>
+        <f>SUM(G269:J269)-SUM(L269:N269)</f>
         <v>1</v>
       </c>
       <c r="I269">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>7</v>
       </c>
@@ -11386,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="F270">
-        <f t="shared" si="4"/>
+        <f>SUM(G270:J270)-SUM(L270:N270)</f>
         <v>3</v>
       </c>
       <c r="G270">
@@ -11402,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>10</v>
       </c>
@@ -11419,7 +11522,7 @@
         <v>1</v>
       </c>
       <c r="F271">
-        <f t="shared" si="4"/>
+        <f>SUM(G271:J271)-SUM(L271:N271)</f>
         <v>3</v>
       </c>
       <c r="G271">
@@ -11432,7 +11535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>43</v>
       </c>
@@ -11449,7 +11552,7 @@
         <v>1</v>
       </c>
       <c r="F272">
-        <f t="shared" si="4"/>
+        <f>SUM(G272:J272)-SUM(L272:N272)</f>
         <v>3</v>
       </c>
       <c r="G272">
@@ -11465,7 +11568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>67</v>
       </c>
@@ -11482,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="F273">
-        <f t="shared" si="4"/>
+        <f>SUM(G273:J273)-SUM(L273:N273)</f>
         <v>3</v>
       </c>
       <c r="H273">
@@ -11498,7 +11601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>81</v>
       </c>
@@ -11515,7 +11618,7 @@
         <v>1</v>
       </c>
       <c r="F274">
-        <f t="shared" si="4"/>
+        <f>SUM(G274:J274)-SUM(L274:N274)</f>
         <v>3</v>
       </c>
       <c r="G274">
@@ -11528,7 +11631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>109</v>
       </c>
@@ -11545,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="F275">
-        <f t="shared" si="4"/>
+        <f>SUM(G275:J275)-SUM(L275:N275)</f>
         <v>3</v>
       </c>
       <c r="G275">
@@ -11558,7 +11661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>114</v>
       </c>
@@ -11575,7 +11678,7 @@
         <v>1</v>
       </c>
       <c r="F276">
-        <f t="shared" si="4"/>
+        <f>SUM(G276:J276)-SUM(L276:N276)</f>
         <v>3</v>
       </c>
       <c r="H276">
@@ -11594,7 +11697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>117</v>
       </c>
@@ -11611,7 +11714,7 @@
         <v>1</v>
       </c>
       <c r="F277">
-        <f t="shared" si="4"/>
+        <f>SUM(G277:J277)-SUM(L277:N277)</f>
         <v>2</v>
       </c>
       <c r="G277">
@@ -11633,7 +11736,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="278" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>142</v>
       </c>
@@ -11650,7 +11753,7 @@
         <v>1</v>
       </c>
       <c r="F278">
-        <f t="shared" si="4"/>
+        <f>SUM(G278:J278)-SUM(L278:N278)</f>
         <v>3</v>
       </c>
       <c r="H278">
@@ -11666,7 +11769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>207</v>
       </c>
@@ -11683,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="F279">
-        <f t="shared" si="4"/>
+        <f>SUM(G279:J279)-SUM(L279:N279)</f>
         <v>3</v>
       </c>
       <c r="H279">
@@ -11696,7 +11799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>215</v>
       </c>
@@ -11713,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="F280">
-        <f t="shared" si="4"/>
+        <f>SUM(G280:J280)-SUM(L280:N280)</f>
         <v>3</v>
       </c>
       <c r="H280">
@@ -11729,7 +11832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>219</v>
       </c>
@@ -11746,7 +11849,7 @@
         <v>1</v>
       </c>
       <c r="F281">
-        <f t="shared" si="4"/>
+        <f>SUM(G281:J281)-SUM(L281:N281)</f>
         <v>3</v>
       </c>
       <c r="H281">
@@ -11765,7 +11868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>244</v>
       </c>
@@ -11782,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="F282">
-        <f t="shared" si="4"/>
+        <f>SUM(G282:J282)-SUM(L282:N282)</f>
         <v>3</v>
       </c>
       <c r="G282">
@@ -11798,7 +11901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>245</v>
       </c>
@@ -11815,7 +11918,7 @@
         <v>1</v>
       </c>
       <c r="F283">
-        <f t="shared" si="4"/>
+        <f>SUM(G283:J283)-SUM(L283:N283)</f>
         <v>3</v>
       </c>
       <c r="G283">
@@ -11831,7 +11934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>264</v>
       </c>
@@ -11848,7 +11951,7 @@
         <v>1</v>
       </c>
       <c r="F284">
-        <f t="shared" si="4"/>
+        <f>SUM(G284:J284)-SUM(L284:N284)</f>
         <v>3</v>
       </c>
       <c r="H284">
@@ -11865,11 +11968,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W284" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W284">
-      <sortCondition descending="1" ref="V1:V284"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:Y284" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11882,69 +11981,69 @@
       <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>564</v>
       </c>
